--- a/output/경기동로_E_겨울_배출량/경기동로_E_겨울_배출량_SOx.xlsx
+++ b/output/경기동로_E_겨울_배출량/경기동로_E_겨울_배출량_SOx.xlsx
@@ -438,28 +438,28 @@
         <v>2024121610</v>
       </c>
       <c r="B2">
-        <v>0.003155389939963592</v>
+        <v>0.005350443811242617</v>
       </c>
       <c r="C2">
-        <v>0.000335225</v>
+        <v>0.000568425</v>
       </c>
       <c r="D2">
-        <v>0.0001069146134952947</v>
+        <v>0.0001812899967963693</v>
       </c>
       <c r="E2">
-        <v>6.667411055574024E-05</v>
+        <v>0.0001130561005075595</v>
       </c>
       <c r="F2">
-        <v>0.0005274255133438667</v>
+        <v>0.0008943302182787303</v>
       </c>
       <c r="G2">
-        <v>0.0003664982360979629</v>
+        <v>0.0006214535307748068</v>
       </c>
       <c r="H2">
-        <v>1.167099472590698E-05</v>
+        <v>1.978994757871185E-05</v>
       </c>
       <c r="I2">
-        <v>0.004569798408182365</v>
+        <v>0.007748788605178795</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024121611</v>
       </c>
       <c r="B3">
-        <v>0.003785902445888219</v>
+        <v>0.006419573712593067</v>
       </c>
       <c r="C3">
-        <v>0.0008075875</v>
+        <v>0.0013693875</v>
       </c>
       <c r="D3">
-        <v>0.0002008698799002507</v>
+        <v>0.0003406054485265119</v>
       </c>
       <c r="E3">
-        <v>2.927156073178839E-05</v>
+        <v>4.963438558868466E-05</v>
       </c>
       <c r="F3">
-        <v>0.0004283658991625312</v>
+        <v>0.0007263595681451618</v>
       </c>
       <c r="G3">
-        <v>0.0001201299773876657</v>
+        <v>0.0002036986573095199</v>
       </c>
       <c r="H3">
-        <v>2.72323210271163E-05</v>
+        <v>4.617654435032764E-05</v>
       </c>
       <c r="I3">
-        <v>0.005399359584097572</v>
+        <v>0.009155435816513272</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024121612</v>
       </c>
       <c r="B4">
-        <v>0.004068643479935136</v>
+        <v>0.006899004161629141</v>
       </c>
       <c r="C4">
-        <v>0.0008380625000000003</v>
+        <v>0.0014210625</v>
       </c>
       <c r="D4">
-        <v>0.0001846706960373272</v>
+        <v>0.0003131372671937288</v>
       </c>
       <c r="E4">
-        <v>2.114057163962495E-05</v>
+        <v>3.584705625849448E-05</v>
       </c>
       <c r="F4">
-        <v>0.0004578160547299554</v>
+        <v>0.0007762967884551414</v>
       </c>
       <c r="G4">
-        <v>0.0001119855721410442</v>
+        <v>0.0001898885788478576</v>
       </c>
       <c r="H4">
-        <v>2.528715523946514E-05</v>
+        <v>4.287821975387566E-05</v>
       </c>
       <c r="I4">
-        <v>0.005707606029722553</v>
+        <v>0.009678114572138239</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024121613</v>
       </c>
       <c r="B5">
-        <v>0.004000785631763875</v>
+        <v>0.006783940853860486</v>
       </c>
       <c r="C5">
-        <v>0.0007466375</v>
+        <v>0.0012660375</v>
       </c>
       <c r="D5">
-        <v>0.0001652316754018191</v>
+        <v>0.000280175449594389</v>
       </c>
       <c r="E5">
-        <v>3.089775855022108E-05</v>
+        <v>5.239185145472269E-05</v>
       </c>
       <c r="F5">
-        <v>0.0005408119476926958</v>
+        <v>0.0009170289547832667</v>
       </c>
       <c r="G5">
-        <v>0.0001160577747643549</v>
+        <v>0.0001967936180786888</v>
       </c>
       <c r="H5">
-        <v>2.528715523946514E-05</v>
+        <v>4.287821975387566E-05</v>
       </c>
       <c r="I5">
-        <v>0.005625709443412431</v>
+        <v>0.009539246447525429</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024121614</v>
       </c>
       <c r="B6">
-        <v>0.004130846507425457</v>
+        <v>0.007004478860417085</v>
       </c>
       <c r="C6">
-        <v>0.0008075875</v>
+        <v>0.0013693875</v>
       </c>
       <c r="D6">
-        <v>0.00020734955344542</v>
+        <v>0.0003515927210596253</v>
       </c>
       <c r="E6">
-        <v>3.089775855022108E-05</v>
+        <v>5.239185145472269E-05</v>
       </c>
       <c r="F6">
-        <v>0.0004712024890787845</v>
+        <v>0.0007989955249596782</v>
       </c>
       <c r="G6">
-        <v>9.366066033614608E-05</v>
+        <v>0.0001588159023091173</v>
       </c>
       <c r="H6">
-        <v>1.750649208886048E-05</v>
+        <v>2.968492136806777E-05</v>
       </c>
       <c r="I6">
-        <v>0.005759050960924889</v>
+        <v>0.009765347281568295</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024121615</v>
       </c>
       <c r="B7">
-        <v>0.004229805869341878</v>
+        <v>0.007172279517579711</v>
       </c>
       <c r="C7">
-        <v>0.0007313999999999999</v>
+        <v>0.0012402</v>
       </c>
       <c r="D7">
-        <v>0.0002267885740809282</v>
+        <v>0.000384554538658965</v>
       </c>
       <c r="E7">
-        <v>4.715973673454795E-05</v>
+        <v>7.996651011510309E-05</v>
       </c>
       <c r="F7">
-        <v>0.000404270317334639</v>
+        <v>0.0006855018424369962</v>
       </c>
       <c r="G7">
-        <v>7.940795115455863E-05</v>
+        <v>0.0001346482650012081</v>
       </c>
       <c r="H7">
-        <v>2.72323210271163E-05</v>
+        <v>4.617654435032764E-05</v>
       </c>
       <c r="I7">
-        <v>0.005746064769673668</v>
+        <v>0.009743327218142311</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024121616</v>
       </c>
       <c r="B8">
-        <v>0.004665227061774128</v>
+        <v>0.007910602409095262</v>
       </c>
       <c r="C8">
-        <v>0.00079235</v>
+        <v>0.00134355</v>
       </c>
       <c r="D8">
-        <v>0.000197630043127666</v>
+        <v>0.0003351118122599552</v>
       </c>
       <c r="E8">
-        <v>5.691692364514411E-05</v>
+        <v>9.651130531133128E-05</v>
       </c>
       <c r="F8">
-        <v>0.0003989157435951073</v>
+        <v>0.0006764223478351822</v>
       </c>
       <c r="G8">
-        <v>5.090253279138376E-05</v>
+        <v>8.631299038538981E-05</v>
       </c>
       <c r="H8">
-        <v>4.668397890362793E-05</v>
+        <v>7.91597903148474E-05</v>
       </c>
       <c r="I8">
-        <v>0.006208626283837058</v>
+        <v>0.01052767065520197</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024121617</v>
       </c>
       <c r="B9">
-        <v>0.005179815743739518</v>
+        <v>0.008783165826340927</v>
       </c>
       <c r="C9">
-        <v>0.000518075</v>
+        <v>0.0008784750000000001</v>
       </c>
       <c r="D9">
-        <v>0.0001522723283114804</v>
+        <v>0.0002582009045281624</v>
       </c>
       <c r="E9">
-        <v>8.781468219536516E-05</v>
+        <v>0.000148903156766054</v>
       </c>
       <c r="F9">
-        <v>0.0003882065961160439</v>
+        <v>0.0006582633586315528</v>
       </c>
       <c r="G9">
-        <v>4.275812754476236E-05</v>
+        <v>7.250291192372745E-05</v>
       </c>
       <c r="H9">
-        <v>1.167099472590698E-05</v>
+        <v>1.978994757871185E-05</v>
       </c>
       <c r="I9">
-        <v>0.006380613472633077</v>
+        <v>0.01081930110576914</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024121618</v>
       </c>
       <c r="B10">
-        <v>0.005029962995694654</v>
+        <v>0.0085290676883518</v>
       </c>
       <c r="C10">
-        <v>0.000335225</v>
+        <v>0.000568425</v>
       </c>
       <c r="D10">
-        <v>0.0001263536341308028</v>
+        <v>0.0002142518143957091</v>
       </c>
       <c r="E10">
-        <v>0.0001170862429271536</v>
+        <v>0.0001985375423547386</v>
       </c>
       <c r="F10">
-        <v>0.0002088283758417339</v>
+        <v>0.0003541002894707665</v>
       </c>
       <c r="G10">
-        <v>3.664982360979626E-05</v>
+        <v>6.214535307748066E-05</v>
       </c>
       <c r="H10">
-        <v>1.945165787651164E-06</v>
+        <v>3.298324596451975E-06</v>
       </c>
       <c r="I10">
-        <v>0.005856051237991792</v>
+        <v>0.009929826012246947</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024121619</v>
       </c>
       <c r="B11">
-        <v>0.003545572566948339</v>
+        <v>0.006012057830912398</v>
       </c>
       <c r="C11">
-        <v>0.0002895125</v>
+        <v>0.0004909125000000001</v>
       </c>
       <c r="D11">
-        <v>0.0001101544502678794</v>
+        <v>0.0001867836330629259</v>
       </c>
       <c r="E11">
-        <v>9.106707783223058E-05</v>
+        <v>0.00015441808849813</v>
       </c>
       <c r="F11">
-        <v>0.0001070914747906328</v>
+        <v>0.0001815898920362904</v>
       </c>
       <c r="G11">
-        <v>2.239711442820883E-05</v>
+        <v>3.797771576957149E-05</v>
       </c>
       <c r="H11">
-        <v>5.835497362953491E-06</v>
+        <v>9.894973789355925E-06</v>
       </c>
       <c r="I11">
-        <v>0.004171630681630245</v>
+        <v>0.007073634634068673</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024121620</v>
       </c>
       <c r="B12">
-        <v>0.003005537191918729</v>
+        <v>0.005096345673253494</v>
       </c>
       <c r="C12">
-        <v>0.0006095</v>
+        <v>0.0010335</v>
       </c>
       <c r="D12">
-        <v>7.451624576944783E-05</v>
+        <v>0.0001263536341308028</v>
       </c>
       <c r="E12">
-        <v>7.643129746633633E-05</v>
+        <v>0.0001296008957037877</v>
       </c>
       <c r="F12">
-        <v>0.0001017369010511012</v>
+        <v>0.000172510397434476</v>
       </c>
       <c r="G12">
-        <v>3.461372229814096E-05</v>
+        <v>5.869283346206508E-05</v>
       </c>
       <c r="H12">
-        <v>1.945165787651164E-06</v>
+        <v>3.298324596451975E-06</v>
       </c>
       <c r="I12">
-        <v>0.003904280524291406</v>
+        <v>0.006620301758581078</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,28 +757,28 @@
         <v>2024121621</v>
       </c>
       <c r="B13">
-        <v>0.002411781020420202</v>
+        <v>0.004089541730277732</v>
       </c>
       <c r="C13">
-        <v>0.0004571250000000001</v>
+        <v>0.0007751250000000003</v>
       </c>
       <c r="D13">
-        <v>5.831706190652438E-05</v>
+        <v>9.888545279801966E-05</v>
       </c>
       <c r="E13">
-        <v>6.504791273730754E-05</v>
+        <v>0.0001102986346415215</v>
       </c>
       <c r="F13">
-        <v>5.890031113484806E-05</v>
+        <v>9.987444061995978E-05</v>
       </c>
       <c r="G13">
-        <v>2.239711442820883E-05</v>
+        <v>3.797771576957149E-05</v>
       </c>
       <c r="H13">
-        <v>3.890331575302329E-06</v>
+        <v>6.59664919290395E-06</v>
       </c>
       <c r="I13">
-        <v>0.003077458752202392</v>
+        <v>0.005218299623299709</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -786,28 +786,28 @@
         <v>2024121622</v>
       </c>
       <c r="B14">
-        <v>0.001829334490283553</v>
+        <v>0.003101915005263418</v>
       </c>
       <c r="C14">
-        <v>0.000518075</v>
+        <v>0.0008784750000000001</v>
       </c>
       <c r="D14">
-        <v>4.859755158877031E-05</v>
+        <v>8.240454399834966E-05</v>
       </c>
       <c r="E14">
-        <v>2.114057163962495E-05</v>
+        <v>3.584705625849448E-05</v>
       </c>
       <c r="F14">
-        <v>3.748201617672149E-05</v>
+        <v>6.355646221270165E-05</v>
       </c>
       <c r="G14">
-        <v>1.425270918158745E-05</v>
+        <v>2.416763730790914E-05</v>
       </c>
       <c r="H14">
-        <v>1.945165787651164E-06</v>
+        <v>3.298324596451975E-06</v>
       </c>
       <c r="I14">
-        <v>0.002470827504657908</v>
+        <v>0.004189664029637324</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -815,28 +815,28 @@
         <v>2024121623</v>
       </c>
       <c r="B15">
-        <v>0.001145101187890014</v>
+        <v>0.001941693318596111</v>
       </c>
       <c r="C15">
-        <v>0.000335225</v>
+        <v>0.000568425</v>
       </c>
       <c r="D15">
-        <v>3.887804127101626E-05</v>
+        <v>6.592363519867973E-05</v>
       </c>
       <c r="E15">
-        <v>1.46357803658942E-05</v>
+        <v>2.481719279434233E-05</v>
       </c>
       <c r="F15">
-        <v>6.157759800461387E-05</v>
+        <v>0.000104414187920867</v>
       </c>
       <c r="G15">
-        <v>2.44332157398642E-05</v>
+        <v>4.143023538498712E-05</v>
       </c>
       <c r="H15">
-        <v>1.945165787651164E-06</v>
+        <v>3.298324596451975E-06</v>
       </c>
       <c r="I15">
-        <v>0.001621795989059053</v>
+        <v>0.002750001894491439</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -844,28 +844,28 @@
         <v>2024121700</v>
       </c>
       <c r="B16">
-        <v>0.0008595327435026278</v>
+        <v>0.001457468565069672</v>
       </c>
       <c r="C16">
-        <v>0.0004723625000000001</v>
+        <v>0.0008009625000000003</v>
       </c>
       <c r="D16">
-        <v>1.943902063550813E-05</v>
+        <v>3.296181759933987E-05</v>
       </c>
       <c r="E16">
-        <v>4.878593455298067E-06</v>
+        <v>8.272397598114112E-06</v>
       </c>
       <c r="F16">
-        <v>2.409558182789239E-05</v>
+        <v>4.085772570816533E-05</v>
       </c>
       <c r="G16">
-        <v>1.628881049324279E-05</v>
+        <v>2.762015692332475E-05</v>
       </c>
       <c r="H16">
-        <v>1.945165787651164E-06</v>
+        <v>3.298324596451975E-06</v>
       </c>
       <c r="I16">
-        <v>0.00139854241570222</v>
+        <v>0.002371441487495069</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -873,25 +873,25 @@
         <v>2024121701</v>
       </c>
       <c r="B17">
-        <v>0.0005485176060510189</v>
+        <v>0.0009300950711299889</v>
       </c>
       <c r="C17">
-        <v>0.0005333124999999999</v>
+        <v>0.0009043125000000003</v>
       </c>
       <c r="E17">
-        <v>1.626197818432688E-06</v>
+        <v>2.757465866038037E-06</v>
       </c>
       <c r="F17">
-        <v>5.08684505255506E-05</v>
+        <v>8.625519871723798E-05</v>
       </c>
       <c r="G17">
-        <v>1.628881049324279E-05</v>
+        <v>2.762015692332475E-05</v>
       </c>
       <c r="H17">
-        <v>1.945165787651164E-06</v>
+        <v>3.298324596451975E-06</v>
       </c>
       <c r="I17">
-        <v>0.001152558730675896</v>
+        <v>0.001954338717233042</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -899,22 +899,22 @@
         <v>2024121702</v>
       </c>
       <c r="B18">
-        <v>0.0003279795994944237</v>
+        <v>0.0005561393208818491</v>
       </c>
       <c r="C18">
-        <v>0.0004418875</v>
+        <v>0.0007492875000000001</v>
       </c>
       <c r="D18">
-        <v>1.943902063550813E-05</v>
+        <v>3.296181759933987E-05</v>
       </c>
       <c r="F18">
-        <v>3.748201617672149E-05</v>
+        <v>6.355646221270165E-05</v>
       </c>
       <c r="G18">
-        <v>2.85054183631749E-05</v>
+        <v>4.833527461581828E-05</v>
       </c>
       <c r="I18">
-        <v>0.0008552935546698282</v>
+        <v>0.001450280375309709</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -922,25 +922,25 @@
         <v>2024121703</v>
       </c>
       <c r="B19">
-        <v>0.0004071470890275607</v>
+        <v>0.0006903798466119505</v>
       </c>
       <c r="C19">
-        <v>0.0002895125</v>
+        <v>0.0004909125000000001</v>
       </c>
       <c r="D19">
-        <v>1.619918386292345E-05</v>
+        <v>2.746818133278321E-05</v>
       </c>
       <c r="E19">
-        <v>6.504791273730754E-06</v>
+        <v>1.102986346415215E-05</v>
       </c>
       <c r="F19">
-        <v>3.748201617672149E-05</v>
+        <v>6.355646221270165E-05</v>
       </c>
       <c r="G19">
-        <v>3.461372229814096E-05</v>
+        <v>5.869283346206508E-05</v>
       </c>
       <c r="I19">
-        <v>0.0007914593026390772</v>
+        <v>0.001342039687083653</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -948,25 +948,25 @@
         <v>2024121704</v>
       </c>
       <c r="B20">
-        <v>0.0006729236610316625</v>
+        <v>0.001141044468705863</v>
       </c>
       <c r="C20">
-        <v>0.0002590375</v>
+        <v>0.0004392375</v>
       </c>
       <c r="D20">
-        <v>3.239836772584689E-05</v>
+        <v>5.493636266556641E-05</v>
       </c>
       <c r="E20">
-        <v>3.252395636865377E-06</v>
+        <v>5.514931732076074E-06</v>
       </c>
       <c r="F20">
-        <v>6.425488487437969E-05</v>
+        <v>0.0001089539352217743</v>
       </c>
       <c r="G20">
-        <v>4.275812754476236E-05</v>
+        <v>7.250291192372745E-05</v>
       </c>
       <c r="I20">
-        <v>0.001074624936813517</v>
+        <v>0.001822190110249007</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -974,28 +974,28 @@
         <v>2024121705</v>
       </c>
       <c r="B21">
-        <v>0.001523974173512883</v>
+        <v>0.002584130120304453</v>
       </c>
       <c r="C21">
-        <v>0.0002895125</v>
+        <v>0.0004909125000000001</v>
       </c>
       <c r="D21">
-        <v>7.451624576944783E-05</v>
+        <v>0.0001263536341308028</v>
       </c>
       <c r="E21">
-        <v>4.22811432792499E-05</v>
+        <v>7.169411251698897E-05</v>
       </c>
       <c r="F21">
-        <v>0.0001606372121859492</v>
+        <v>0.0002723848380544358</v>
       </c>
       <c r="G21">
-        <v>6.719134328462653E-05</v>
+        <v>0.0001139331473087145</v>
       </c>
       <c r="H21">
-        <v>1.945165787651164E-06</v>
+        <v>3.298324596451975E-06</v>
       </c>
       <c r="I21">
-        <v>0.002160057783819808</v>
+        <v>0.003662706676911847</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1003,28 +1003,28 @@
         <v>2024121706</v>
       </c>
       <c r="B22">
-        <v>0.002810445878426355</v>
+        <v>0.004765538663418603</v>
       </c>
       <c r="C22">
-        <v>0.0003199875</v>
+        <v>0.0005425875000000003</v>
       </c>
       <c r="D22">
-        <v>0.0001328333076759721</v>
+        <v>0.0002252390869288224</v>
       </c>
       <c r="E22">
-        <v>0.0001512363971142401</v>
+        <v>0.0002564443255415375</v>
       </c>
       <c r="F22">
-        <v>0.0002757605475858795</v>
+        <v>0.0004675939719934478</v>
       </c>
       <c r="G22">
-        <v>0.0001099494708293889</v>
+        <v>0.0001864360592324421</v>
       </c>
       <c r="H22">
-        <v>7.780663150604657E-06</v>
+        <v>1.31932983858079E-05</v>
       </c>
       <c r="I22">
-        <v>0.00380799376478244</v>
+        <v>0.00645703290550066</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1032,28 +1032,28 @@
         <v>2024121707</v>
       </c>
       <c r="B23">
-        <v>0.003955547066316372</v>
+        <v>0.006707231982014713</v>
       </c>
       <c r="C23">
-        <v>0.0001980875</v>
+        <v>0.0003358875000000001</v>
       </c>
       <c r="D23">
-        <v>0.0001069146134952947</v>
+        <v>0.0001812899967963693</v>
       </c>
       <c r="E23">
-        <v>0.0001187124407455862</v>
+        <v>0.0002012950082207767</v>
       </c>
       <c r="F23">
-        <v>0.0003185971375021326</v>
+        <v>0.0005402299288079642</v>
       </c>
       <c r="G23">
-        <v>0.0001099494708293889</v>
+        <v>0.0001864360592324421</v>
       </c>
       <c r="H23">
-        <v>1.361616051355815E-05</v>
+        <v>2.308827217516382E-05</v>
       </c>
       <c r="I23">
-        <v>0.004821424389402333</v>
+        <v>0.008175458747247429</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1061,28 +1061,28 @@
         <v>2024121708</v>
       </c>
       <c r="B24">
-        <v>0.004834871682202279</v>
+        <v>0.008198260678516912</v>
       </c>
       <c r="C24">
-        <v>0.0004266500000000001</v>
+        <v>0.0007234500000000002</v>
       </c>
       <c r="D24">
-        <v>0.0001749511857195732</v>
+        <v>0.0002966563583940589</v>
       </c>
       <c r="E24">
-        <v>6.342171491887485E-05</v>
+        <v>0.0001075411687754834</v>
       </c>
       <c r="F24">
-        <v>0.0003828520223765123</v>
+        <v>0.0006491838640297384</v>
       </c>
       <c r="G24">
-        <v>0.0001588159023091173</v>
+        <v>0.0002692965300024162</v>
       </c>
       <c r="H24">
-        <v>1.750649208886048E-05</v>
+        <v>2.968492136806777E-05</v>
       </c>
       <c r="I24">
-        <v>0.006059068999615217</v>
+        <v>0.01027407352108668</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1090,28 +1090,28 @@
         <v>2024121709</v>
       </c>
       <c r="B25">
-        <v>0.00364170451852429</v>
+        <v>0.006175064183584669</v>
       </c>
       <c r="C25">
-        <v>0.000274275</v>
+        <v>0.0004650750000000001</v>
       </c>
       <c r="D25">
-        <v>0.0001652316754018191</v>
+        <v>0.000280175449594389</v>
       </c>
       <c r="E25">
-        <v>0.0001349744189299131</v>
+        <v>0.000228869666881157</v>
       </c>
       <c r="F25">
-        <v>0.000433720472902063</v>
+        <v>0.0007354390627469764</v>
       </c>
       <c r="G25">
-        <v>0.0002545126639569187</v>
+        <v>0.0004315649519269491</v>
       </c>
       <c r="H25">
-        <v>3.501298417772095E-05</v>
+        <v>5.936984273613554E-05</v>
       </c>
       <c r="I25">
-        <v>0.004939431733892725</v>
+        <v>0.008375558157470276</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1119,28 +1119,28 @@
         <v>2024121710</v>
       </c>
       <c r="B26">
-        <v>0.003093186912473273</v>
+        <v>0.00524496911245468</v>
       </c>
       <c r="C26">
-        <v>0.0002590375</v>
+        <v>0.0004392375</v>
       </c>
       <c r="D26">
-        <v>0.0001555121650840651</v>
+        <v>0.0002636945407947189</v>
       </c>
       <c r="E26">
-        <v>6.504791273730754E-05</v>
+        <v>0.0001102986346415215</v>
       </c>
       <c r="F26">
-        <v>0.0005140390789950375</v>
+        <v>0.0008716314817741944</v>
       </c>
       <c r="G26">
-        <v>0.0003990758570844486</v>
+        <v>0.0006766938446214562</v>
       </c>
       <c r="H26">
-        <v>1.361616051355815E-05</v>
+        <v>2.308827217516382E-05</v>
       </c>
       <c r="I26">
-        <v>0.00449951558688769</v>
+        <v>0.007629613386461735</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1148,28 +1148,28 @@
         <v>2024121711</v>
       </c>
       <c r="B27">
-        <v>0.003709562366695552</v>
+        <v>0.006290127491353326</v>
       </c>
       <c r="C27">
-        <v>0.0006247374999999999</v>
+        <v>0.0010593375</v>
       </c>
       <c r="D27">
-        <v>0.0002883454727600372</v>
+        <v>0.0004889336277235414</v>
       </c>
       <c r="E27">
-        <v>2.764536291335571E-05</v>
+        <v>4.687691972264662E-05</v>
       </c>
       <c r="F27">
-        <v>0.0004176567516834678</v>
+        <v>0.000708200578941533</v>
       </c>
       <c r="G27">
-        <v>0.0001303104839459423</v>
+        <v>0.000220961255386598</v>
       </c>
       <c r="H27">
-        <v>2.917748681476746E-05</v>
+        <v>4.94748689467796E-05</v>
       </c>
       <c r="I27">
-        <v>0.005227435424813122</v>
+        <v>0.008863912242074425</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1177,28 +1177,28 @@
         <v>2024121712</v>
       </c>
       <c r="B28">
-        <v>0.003986648580061528</v>
+        <v>0.00675996933140868</v>
       </c>
       <c r="C28">
-        <v>0.0006399750000000001</v>
+        <v>0.001085175000000001</v>
       </c>
       <c r="D28">
-        <v>0.0002656666153519443</v>
+        <v>0.0004504781738576449</v>
       </c>
       <c r="E28">
-        <v>2.114057163962495E-05</v>
+        <v>3.584705625849448E-05</v>
       </c>
       <c r="F28">
-        <v>0.000447106907250892</v>
+        <v>0.0007581377992515127</v>
       </c>
       <c r="G28">
-        <v>0.0001221660786993209</v>
+        <v>0.0002071511769249356</v>
       </c>
       <c r="H28">
-        <v>2.72323210271163E-05</v>
+        <v>4.617654435032764E-05</v>
       </c>
       <c r="I28">
-        <v>0.005509936074030427</v>
+        <v>0.009342935082051595</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1206,28 +1206,28 @@
         <v>2024121713</v>
       </c>
       <c r="B29">
-        <v>0.003921618142230738</v>
+        <v>0.006649700328130382</v>
       </c>
       <c r="C29">
-        <v>0.0005790249999999999</v>
+        <v>0.0009818250000000002</v>
       </c>
       <c r="D29">
-        <v>0.0002365080843986822</v>
+        <v>0.0004010354474586352</v>
       </c>
       <c r="E29">
-        <v>2.927156073178839E-05</v>
+        <v>4.963438558868466E-05</v>
       </c>
       <c r="F29">
-        <v>0.0005274255133438667</v>
+        <v>0.0008943302182787303</v>
       </c>
       <c r="G29">
-        <v>0.0001262382813226317</v>
+        <v>0.0002140562161557668</v>
       </c>
       <c r="H29">
-        <v>2.72323210271163E-05</v>
+        <v>4.617654435032764E-05</v>
       </c>
       <c r="I29">
-        <v>0.005447318903054824</v>
+        <v>0.009236758139962527</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1235,28 +1235,28 @@
         <v>2024121714</v>
       </c>
       <c r="B30">
-        <v>0.004048851607551851</v>
+        <v>0.006865444030196619</v>
       </c>
       <c r="C30">
-        <v>0.0006247374999999999</v>
+        <v>0.0010593375</v>
       </c>
       <c r="D30">
-        <v>0.0002980649830777913</v>
+        <v>0.0005054145365232111</v>
       </c>
       <c r="E30">
-        <v>2.927156073178839E-05</v>
+        <v>4.963438558868466E-05</v>
       </c>
       <c r="F30">
-        <v>0.000460493341599721</v>
+        <v>0.0007808365357560489</v>
       </c>
       <c r="G30">
-        <v>0.0001018050655827675</v>
+        <v>0.0001726259807707796</v>
       </c>
       <c r="H30">
-        <v>1.945165787651164E-05</v>
+        <v>3.298324596451975E-05</v>
       </c>
       <c r="I30">
-        <v>0.00558267571642043</v>
+        <v>0.009466276214799861</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1264,28 +1264,28 @@
         <v>2024121715</v>
       </c>
       <c r="B31">
-        <v>0.004144983559127804</v>
+        <v>0.007028450382868887</v>
       </c>
       <c r="C31">
-        <v>0.0005637875</v>
+        <v>0.0009559875000000003</v>
       </c>
       <c r="D31">
-        <v>0.0003272235140310535</v>
+        <v>0.0005548572629222216</v>
       </c>
       <c r="E31">
-        <v>4.553353891611529E-05</v>
+        <v>7.720904424906502E-05</v>
       </c>
       <c r="F31">
-        <v>0.0003935611698555756</v>
+        <v>0.0006673428532333673</v>
       </c>
       <c r="G31">
-        <v>8.551625508952471E-05</v>
+        <v>0.0001450058238474549</v>
       </c>
       <c r="H31">
-        <v>2.917748681476746E-05</v>
+        <v>4.94748689467796E-05</v>
       </c>
       <c r="I31">
-        <v>0.00558978302383484</v>
+        <v>0.009478327736067776</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1293,28 +1293,28 @@
         <v>2024121716</v>
       </c>
       <c r="B32">
-        <v>0.004571922520538646</v>
+        <v>0.00775239036091336</v>
       </c>
       <c r="C32">
-        <v>0.0006095</v>
+        <v>0.0010335</v>
       </c>
       <c r="D32">
-        <v>0.0002851056359874526</v>
+        <v>0.0004834399914569849</v>
       </c>
       <c r="E32">
-        <v>5.529072582671142E-05</v>
+        <v>9.375383944529323E-05</v>
       </c>
       <c r="F32">
-        <v>0.0003882065961160439</v>
+        <v>0.0006582633586315528</v>
       </c>
       <c r="G32">
-        <v>5.497473541469443E-05</v>
+        <v>9.321802961622103E-05</v>
       </c>
       <c r="H32">
-        <v>5.057431047893028E-05</v>
+        <v>8.575643950775132E-05</v>
       </c>
       <c r="I32">
-        <v>0.006015574524362479</v>
+        <v>0.01020032201957116</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1322,28 +1322,28 @@
         <v>2024121717</v>
       </c>
       <c r="B33">
-        <v>0.005075201561142161</v>
+        <v>0.008605776560197577</v>
       </c>
       <c r="C33">
-        <v>0.000396175</v>
+        <v>0.0006717750000000001</v>
       </c>
       <c r="D33">
-        <v>0.0002203089005357588</v>
+        <v>0.0003735672661258519</v>
       </c>
       <c r="E33">
-        <v>8.45622865584998E-05</v>
+        <v>0.0001433882250339779</v>
       </c>
       <c r="F33">
-        <v>0.0003774974486369808</v>
+        <v>0.0006401043694279239</v>
       </c>
       <c r="G33">
-        <v>4.683033016807304E-05</v>
+        <v>7.940795115455863E-05</v>
       </c>
       <c r="H33">
-        <v>1.361616051355815E-05</v>
+        <v>2.308827217516382E-05</v>
       </c>
       <c r="I33">
-        <v>0.006214191687555032</v>
+        <v>0.01053710764411505</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1351,28 +1351,28 @@
         <v>2024121718</v>
       </c>
       <c r="B34">
-        <v>0.004928176223437762</v>
+        <v>0.008356472726698821</v>
       </c>
       <c r="C34">
-        <v>0.0002590375</v>
+        <v>0.0004392375</v>
       </c>
       <c r="D34">
-        <v>0.0001814308592647426</v>
+        <v>0.000307643630927172</v>
       </c>
       <c r="E34">
-        <v>0.0001138338472902882</v>
+        <v>0.0001930226106226626</v>
       </c>
       <c r="F34">
-        <v>0.0002034738021022024</v>
+        <v>0.0003450207948689519</v>
       </c>
       <c r="G34">
-        <v>4.0722026233107E-05</v>
+        <v>6.905039230831189E-05</v>
       </c>
       <c r="H34">
-        <v>1.945165787651164E-06</v>
+        <v>3.298324596451975E-06</v>
       </c>
       <c r="I34">
-        <v>0.005728619424115754</v>
+        <v>0.009713745980022372</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1380,28 +1380,28 @@
         <v>2024121719</v>
       </c>
       <c r="B35">
-        <v>0.003474887308436609</v>
+        <v>0.005892200218653383</v>
       </c>
       <c r="C35">
-        <v>0.0002285625</v>
+        <v>0.0003875625000000002</v>
       </c>
       <c r="D35">
-        <v>0.0001587520018566497</v>
+        <v>0.0002691881770612756</v>
       </c>
       <c r="E35">
-        <v>8.781468219536516E-05</v>
+        <v>0.000148903156766054</v>
       </c>
       <c r="F35">
-        <v>0.000104414187920867</v>
+        <v>0.0001770501447353833</v>
       </c>
       <c r="G35">
-        <v>2.44332157398642E-05</v>
+        <v>4.143023538498712E-05</v>
       </c>
       <c r="H35">
-        <v>5.835497362953491E-06</v>
+        <v>9.894973789355925E-06</v>
       </c>
       <c r="I35">
-        <v>0.004084699393512308</v>
+        <v>0.006926229406390439</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1409,28 +1409,28 @@
         <v>2024121720</v>
       </c>
       <c r="B36">
-        <v>0.002946161574768874</v>
+        <v>0.004995665278955917</v>
       </c>
       <c r="C36">
-        <v>0.0004723625000000001</v>
+        <v>0.0008009625000000003</v>
       </c>
       <c r="D36">
-        <v>0.0001069146134952947</v>
+        <v>0.0001812899967963693</v>
       </c>
       <c r="E36">
-        <v>7.480509964790367E-05</v>
+        <v>0.0001268434298377497</v>
       </c>
       <c r="F36">
-        <v>9.905961418133532E-05</v>
+        <v>0.0001679706501335686</v>
       </c>
       <c r="G36">
-        <v>3.868592492145164E-05</v>
+        <v>6.559787269289622E-05</v>
       </c>
       <c r="H36">
-        <v>1.945165787651164E-06</v>
+        <v>3.298324596451975E-06</v>
       </c>
       <c r="I36">
-        <v>0.00373993449280251</v>
+        <v>0.006341628053012953</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1438,28 +1438,28 @@
         <v>2024121721</v>
       </c>
       <c r="B37">
-        <v>0.002363715044632226</v>
+        <v>0.004008038553941601</v>
       </c>
       <c r="C37">
-        <v>0.0003504625</v>
+        <v>0.0005942625000000002</v>
       </c>
       <c r="D37">
-        <v>8.423575608720193E-05</v>
+        <v>0.0001428345429304727</v>
       </c>
       <c r="E37">
-        <v>6.342171491887485E-05</v>
+        <v>0.0001075411687754834</v>
       </c>
       <c r="F37">
-        <v>5.622302426508222E-05</v>
+        <v>9.533469331905253E-05</v>
       </c>
       <c r="G37">
-        <v>2.44332157398642E-05</v>
+        <v>4.143023538498712E-05</v>
       </c>
       <c r="H37">
-        <v>3.890331575302329E-06</v>
+        <v>6.59664919290395E-06</v>
       </c>
       <c r="I37">
-        <v>0.002946381587218551</v>
+        <v>0.004996038343544501</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1467,28 +1467,28 @@
         <v>2024121722</v>
       </c>
       <c r="B38">
-        <v>0.001792578155857455</v>
+        <v>0.003039589046888725</v>
       </c>
       <c r="C38">
-        <v>0.000396175</v>
+        <v>0.0006717750000000001</v>
       </c>
       <c r="D38">
-        <v>7.127640899686315E-05</v>
+        <v>0.0001208599978642462</v>
       </c>
       <c r="E38">
-        <v>2.114057163962495E-05</v>
+        <v>3.584705625849448E-05</v>
       </c>
       <c r="F38">
-        <v>3.748201617672149E-05</v>
+        <v>6.355646221270165E-05</v>
       </c>
       <c r="G38">
-        <v>1.628881049324279E-05</v>
+        <v>2.762015692332475E-05</v>
       </c>
       <c r="H38">
-        <v>1.945165787651164E-06</v>
+        <v>3.298324596451975E-06</v>
       </c>
       <c r="I38">
-        <v>0.002336886128951558</v>
+        <v>0.003962546044743945</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1496,28 +1496,28 @@
         <v>2024121723</v>
       </c>
       <c r="B39">
-        <v>0.00112248190516626</v>
+        <v>0.001903338882673224</v>
       </c>
       <c r="C39">
-        <v>0.0002590375</v>
+        <v>0.0004392375</v>
       </c>
       <c r="D39">
-        <v>5.50772251339397E-05</v>
+        <v>9.339181653146297E-05</v>
       </c>
       <c r="E39">
-        <v>1.46357803658942E-05</v>
+        <v>2.481719279434233E-05</v>
       </c>
       <c r="F39">
-        <v>5.890031113484806E-05</v>
+        <v>9.987444061995978E-05</v>
       </c>
       <c r="G39">
-        <v>2.646931705151955E-05</v>
+        <v>4.488275500040268E-05</v>
       </c>
       <c r="H39">
-        <v>1.945165787651164E-06</v>
+        <v>3.298324596451975E-06</v>
       </c>
       <c r="I39">
-        <v>0.001538547204640113</v>
+        <v>0.002608840912215844</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1525,28 +1525,28 @@
         <v>2024121800</v>
       </c>
       <c r="B40">
-        <v>0.0008425682814598126</v>
+        <v>0.001428702738127508</v>
       </c>
       <c r="C40">
-        <v>0.0003656999999999999</v>
+        <v>0.0006200999999999999</v>
       </c>
       <c r="D40">
-        <v>2.915853095326219E-05</v>
+        <v>4.944272639900983E-05</v>
       </c>
       <c r="E40">
-        <v>4.878593455298067E-06</v>
+        <v>8.272397598114112E-06</v>
       </c>
       <c r="F40">
-        <v>2.409558182789239E-05</v>
+        <v>4.085772570816533E-05</v>
       </c>
       <c r="G40">
-        <v>1.832491180489813E-05</v>
+        <v>3.107267653874033E-05</v>
       </c>
       <c r="H40">
-        <v>1.945165787651164E-06</v>
+        <v>3.298324596451975E-06</v>
       </c>
       <c r="I40">
-        <v>0.001286671065288814</v>
+        <v>0.00218174658896799</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1554,25 +1554,25 @@
         <v>2024121801</v>
       </c>
       <c r="B41">
-        <v>0.000537207964689142</v>
+        <v>0.0009109178531685455</v>
       </c>
       <c r="C41">
-        <v>0.0004114125000000001</v>
+        <v>0.0006976125000000001</v>
       </c>
       <c r="E41">
-        <v>1.626197818432688E-06</v>
+        <v>2.757465866038037E-06</v>
       </c>
       <c r="F41">
-        <v>5.08684505255506E-05</v>
+        <v>8.625519871723798E-05</v>
       </c>
       <c r="G41">
-        <v>1.832491180489813E-05</v>
+        <v>3.107267653874033E-05</v>
       </c>
       <c r="H41">
-        <v>1.945165787651164E-06</v>
+        <v>3.298324596451975E-06</v>
       </c>
       <c r="I41">
-        <v>0.001021385190625675</v>
+        <v>0.001731914018887014</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1580,22 +1580,22 @@
         <v>2024121802</v>
       </c>
       <c r="B42">
-        <v>0.0003223247788134852</v>
+        <v>0.0005465507119011273</v>
       </c>
       <c r="C42">
-        <v>0.000335225</v>
+        <v>0.000568425</v>
       </c>
       <c r="D42">
-        <v>2.915853095326219E-05</v>
+        <v>4.944272639900983E-05</v>
       </c>
       <c r="F42">
-        <v>3.748201617672149E-05</v>
+        <v>6.355646221270165E-05</v>
       </c>
       <c r="G42">
-        <v>3.054151967483023E-05</v>
+        <v>5.17877942312339E-05</v>
       </c>
       <c r="I42">
-        <v>0.000754731845618299</v>
+        <v>0.001279762694744073</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1603,25 +1603,25 @@
         <v>2024121803</v>
       </c>
       <c r="B43">
-        <v>0.0003986648580061531</v>
+        <v>0.0006759969331408681</v>
       </c>
       <c r="C43">
-        <v>0.0002285625</v>
+        <v>0.0003875625000000002</v>
       </c>
       <c r="D43">
-        <v>2.267885740809282E-05</v>
+        <v>3.84554538658965E-05</v>
       </c>
       <c r="E43">
-        <v>6.504791273730754E-06</v>
+        <v>1.102986346415215E-05</v>
       </c>
       <c r="F43">
-        <v>3.748201617672149E-05</v>
+        <v>6.355646221270165E-05</v>
       </c>
       <c r="G43">
-        <v>3.868592492145164E-05</v>
+        <v>6.559787269289622E-05</v>
       </c>
       <c r="I43">
-        <v>0.0007325789477861497</v>
+        <v>0.001242199085376515</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1629,25 +1629,25 @@
         <v>2024121804</v>
       </c>
       <c r="B44">
-        <v>0.0006587866093293167</v>
+        <v>0.001117072946254059</v>
       </c>
       <c r="C44">
-        <v>0.0001980875</v>
+        <v>0.0003358875000000001</v>
       </c>
       <c r="D44">
-        <v>4.535771481618564E-05</v>
+        <v>7.691090773179301E-05</v>
       </c>
       <c r="E44">
-        <v>3.252395636865377E-06</v>
+        <v>5.514931732076074E-06</v>
       </c>
       <c r="F44">
-        <v>6.157759800461387E-05</v>
+        <v>0.000104414187920867</v>
       </c>
       <c r="G44">
-        <v>4.683033016807304E-05</v>
+        <v>7.940795115455863E-05</v>
       </c>
       <c r="I44">
-        <v>0.001013892147955055</v>
+        <v>0.001719208424793354</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1655,28 +1655,28 @@
         <v>2024121805</v>
       </c>
       <c r="B45">
-        <v>0.001492872659767721</v>
+        <v>0.002531392770910487</v>
       </c>
       <c r="C45">
-        <v>0.0002285625</v>
+        <v>0.0003875625000000002</v>
       </c>
       <c r="D45">
-        <v>0.0001069146134952947</v>
+        <v>0.0001812899967963693</v>
       </c>
       <c r="E45">
-        <v>4.065494546081721E-05</v>
+        <v>6.893664665095092E-05</v>
       </c>
       <c r="F45">
-        <v>0.0001552826384464176</v>
+        <v>0.000263305343452621</v>
       </c>
       <c r="G45">
-        <v>7.329964721959253E-05</v>
+        <v>0.0001242907061549613</v>
       </c>
       <c r="H45">
-        <v>1.945165787651164E-06</v>
+        <v>3.298324596451975E-06</v>
       </c>
       <c r="I45">
-        <v>0.002099532170177495</v>
+        <v>0.003560076288561842</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1684,28 +1684,28 @@
         <v>2024121806</v>
       </c>
       <c r="B46">
-        <v>0.002753897671616973</v>
+        <v>0.004669652573611387</v>
       </c>
       <c r="C46">
-        <v>0.0002438</v>
+        <v>0.0004134000000000001</v>
       </c>
       <c r="D46">
-        <v>0.0001911503695824966</v>
+        <v>0.0003241245397268421</v>
       </c>
       <c r="E46">
-        <v>0.000146357803658942</v>
+        <v>0.0002481719279434233</v>
       </c>
       <c r="F46">
-        <v>0.000267728686976582</v>
+        <v>0.000453974730090726</v>
       </c>
       <c r="G46">
-        <v>0.0001201299773876657</v>
+        <v>0.0002036986573095199</v>
       </c>
       <c r="H46">
-        <v>7.780663150604657E-06</v>
+        <v>1.31932983858079E-05</v>
       </c>
       <c r="I46">
-        <v>0.003730845172373265</v>
+        <v>0.006326215727067707</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1713,28 +1713,28 @@
         <v>2024121807</v>
       </c>
       <c r="B47">
-        <v>0.003876379576783233</v>
+        <v>0.006572991456284612</v>
       </c>
       <c r="C47">
-        <v>0.000152375</v>
+        <v>0.000258375</v>
       </c>
       <c r="D47">
-        <v>0.0001555121650840651</v>
+        <v>0.0002636945407947189</v>
       </c>
       <c r="E47">
-        <v>0.0001154600451087209</v>
+        <v>0.0001957800764887006</v>
       </c>
       <c r="F47">
-        <v>0.0003105652768928352</v>
+        <v>0.0005266106869052421</v>
       </c>
       <c r="G47">
-        <v>0.0001201299773876657</v>
+        <v>0.0002036986573095199</v>
       </c>
       <c r="H47">
-        <v>1.556132630120931E-05</v>
+        <v>2.63865967716158E-05</v>
       </c>
       <c r="I47">
-        <v>0.00474598336755773</v>
+        <v>0.008047537014554408</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1742,28 +1742,28 @@
         <v>2024121808</v>
       </c>
       <c r="B48">
-        <v>0.004738739730626326</v>
+        <v>0.008035254325844645</v>
       </c>
       <c r="C48">
-        <v>0.000335225</v>
+        <v>0.000568425</v>
       </c>
       <c r="D48">
-        <v>0.0002527072682616055</v>
+        <v>0.0004285036287914182</v>
       </c>
       <c r="E48">
-        <v>6.179551710044216E-05</v>
+        <v>0.0001047837029094454</v>
       </c>
       <c r="F48">
-        <v>0.0003721428748974491</v>
+        <v>0.0006310248748261093</v>
       </c>
       <c r="G48">
-        <v>0.0001730686114907047</v>
+        <v>0.0002934641673103253</v>
       </c>
       <c r="H48">
-        <v>1.945165787651164E-05</v>
+        <v>3.298324596451975E-05</v>
       </c>
       <c r="I48">
-        <v>0.005953130660253038</v>
+        <v>0.01009443894564646</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1771,28 +1771,28 @@
         <v>2024121809</v>
       </c>
       <c r="B49">
-        <v>0.003568191849672093</v>
+        <v>0.006050412266835285</v>
       </c>
       <c r="C49">
-        <v>0.000213325</v>
+        <v>0.0003617250000000001</v>
       </c>
       <c r="D49">
-        <v>0.0002365080843986822</v>
+        <v>0.0004010354474586352</v>
       </c>
       <c r="E49">
-        <v>0.0001317220232930477</v>
+        <v>0.000223354735149081</v>
       </c>
       <c r="F49">
-        <v>0.0004230113254229996</v>
+        <v>0.000717280073543347</v>
       </c>
       <c r="G49">
-        <v>0.0002769097783851277</v>
+        <v>0.0004695426676965206</v>
       </c>
       <c r="H49">
-        <v>3.890331575302329E-05</v>
+        <v>6.596649192903949E-05</v>
       </c>
       <c r="I49">
-        <v>0.004888571376924973</v>
+        <v>0.008289316682611909</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기동로_E_겨울_배출량/경기동로_E_겨울_배출량_SOx.xlsx
+++ b/output/경기동로_E_겨울_배출량/경기동로_E_겨울_배출량_SOx.xlsx
@@ -438,28 +438,28 @@
         <v>2024121610</v>
       </c>
       <c r="B2">
-        <v>1.950593031376165</v>
+        <v>1.147518687060193</v>
       </c>
       <c r="C2">
-        <v>0.03274128</v>
+        <v>0.01926144</v>
       </c>
       <c r="D2">
-        <v>0.1390219855057107</v>
+        <v>0.08178555122155019</v>
       </c>
       <c r="E2">
-        <v>0.2998141856416546</v>
+        <v>0.1763783501404218</v>
       </c>
       <c r="F2">
-        <v>0.2591731594989968</v>
+        <v>0.1524695510163423</v>
       </c>
       <c r="G2">
-        <v>1.427573373594918</v>
+        <v>0.8398302962222632</v>
       </c>
       <c r="H2">
-        <v>0.05520623697471282</v>
+        <v>0.0324773992071847</v>
       </c>
       <c r="I2">
-        <v>4.164123252592158</v>
+        <v>2.449721274867955</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024121611</v>
       </c>
       <c r="B3">
-        <v>2.340362069007782</v>
+        <v>1.376816775962005</v>
       </c>
       <c r="C3">
-        <v>0.07887672000000001</v>
+        <v>0.04640256</v>
       </c>
       <c r="D3">
-        <v>0.2611928212531535</v>
+        <v>0.1536577022950337</v>
       </c>
       <c r="E3">
-        <v>0.1316257400377996</v>
+        <v>0.07743439762262427</v>
       </c>
       <c r="F3">
-        <v>0.2104959671057839</v>
+        <v>0.1238331378812932</v>
       </c>
       <c r="G3">
-        <v>0.4679268280116676</v>
+        <v>0.2752777082061868</v>
       </c>
       <c r="H3">
-        <v>0.1288145529409966</v>
+        <v>0.07578059815009766</v>
       </c>
       <c r="I3">
-        <v>3.619294698357183</v>
+        <v>2.129202880117241</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024121612</v>
       </c>
       <c r="B4">
-        <v>2.515146390815684</v>
+        <v>1.479641031074925</v>
       </c>
       <c r="C4">
-        <v>0.0818532</v>
+        <v>0.0481536</v>
       </c>
       <c r="D4">
-        <v>0.2401288840553186</v>
+        <v>0.1412659521099503</v>
       </c>
       <c r="E4">
-        <v>0.0950630344717442</v>
+        <v>0.0559248427274508</v>
       </c>
       <c r="F4">
-        <v>0.2249675648443065</v>
+        <v>0.1323466661106321</v>
       </c>
       <c r="G4">
-        <v>0.4362029752651133</v>
+        <v>0.2566148127345806</v>
       </c>
       <c r="H4">
-        <v>0.1196135134452112</v>
+        <v>0.07036769828223353</v>
       </c>
       <c r="I4">
-        <v>3.712975562897377</v>
+        <v>2.184314603039772</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024121613</v>
       </c>
       <c r="B5">
-        <v>2.473198153581785</v>
+        <v>1.454963209847824</v>
       </c>
       <c r="C5">
-        <v>0.07292376000000002</v>
+        <v>0.04290047999999999</v>
       </c>
       <c r="D5">
-        <v>0.2148521594179166</v>
+        <v>0.1263958518878504</v>
       </c>
       <c r="E5">
-        <v>0.1389382811510107</v>
+        <v>0.08173630860165888</v>
       </c>
       <c r="F5">
-        <v>0.2657511584710523</v>
+        <v>0.1563393365751325</v>
       </c>
       <c r="G5">
-        <v>0.452064901638391</v>
+        <v>0.2659462604703833</v>
       </c>
       <c r="H5">
-        <v>0.1196135134452112</v>
+        <v>0.07036769828223353</v>
       </c>
       <c r="I5">
-        <v>3.737341927705367</v>
+        <v>2.198649145665082</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024121614</v>
       </c>
       <c r="B6">
-        <v>2.553598941613419</v>
+        <v>1.502262367199767</v>
       </c>
       <c r="C6">
-        <v>0.07887672000000001</v>
+        <v>0.04640256</v>
       </c>
       <c r="D6">
-        <v>0.2696183961322873</v>
+        <v>0.1586144023690672</v>
       </c>
       <c r="E6">
-        <v>0.1389382811510107</v>
+        <v>0.08173630860165888</v>
       </c>
       <c r="F6">
-        <v>0.2315455638163623</v>
+        <v>0.1362164516694225</v>
       </c>
       <c r="G6">
-        <v>0.364824306585368</v>
+        <v>0.2146232979234676</v>
       </c>
       <c r="H6">
-        <v>0.08280935546206926</v>
+        <v>0.04871609881077704</v>
       </c>
       <c r="I6">
-        <v>3.720211564760516</v>
+        <v>2.18857148657416</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024121615</v>
       </c>
       <c r="B7">
-        <v>2.614773454246186</v>
+        <v>1.538250856489289</v>
       </c>
       <c r="C7">
-        <v>0.07143552</v>
+        <v>0.04202495999999999</v>
       </c>
       <c r="D7">
-        <v>0.2948951207696898</v>
+        <v>0.173484502591167</v>
       </c>
       <c r="E7">
-        <v>0.2120636922831217</v>
+        <v>0.1247554183920057</v>
       </c>
       <c r="F7">
-        <v>0.1986555689560834</v>
+        <v>0.1168675238754705</v>
       </c>
       <c r="G7">
-        <v>0.3093075642788988</v>
+        <v>0.1819632308481573</v>
       </c>
       <c r="H7">
-        <v>0.1288145529409966</v>
+        <v>0.07578059815009766</v>
       </c>
       <c r="I7">
-        <v>3.829945473474976</v>
+        <v>2.253127090346188</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024121616</v>
       </c>
       <c r="B8">
-        <v>2.883941309830352</v>
+        <v>1.696600209363187</v>
       </c>
       <c r="C8">
-        <v>0.07738848000000001</v>
+        <v>0.04552704</v>
       </c>
       <c r="D8">
-        <v>0.2569800338135868</v>
+        <v>0.151179352258017</v>
       </c>
       <c r="E8">
-        <v>0.2559389389623881</v>
+        <v>0.1505668842662138</v>
       </c>
       <c r="F8">
-        <v>0.1960243693672611</v>
+        <v>0.1153196096519543</v>
       </c>
       <c r="G8">
-        <v>0.1982740796659608</v>
+        <v>0.1166430966975366</v>
       </c>
       <c r="H8">
-        <v>0.2208249478988513</v>
+        <v>0.1299095968287388</v>
       </c>
       <c r="I8">
-        <v>4.0893721595384</v>
+        <v>2.405745789065648</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024121617</v>
       </c>
       <c r="B9">
-        <v>3.202048775520729</v>
+        <v>1.883740353668701</v>
       </c>
       <c r="C9">
-        <v>0.05060016000000002</v>
+        <v>0.02976767999999999</v>
       </c>
       <c r="D9">
-        <v>0.1980010096596488</v>
+        <v>0.1164824517397836</v>
       </c>
       <c r="E9">
-        <v>0.3948772201133987</v>
+        <v>0.2323031928678728</v>
       </c>
       <c r="F9">
-        <v>0.1907619701896164</v>
+        <v>0.112223781204922</v>
       </c>
       <c r="G9">
-        <v>0.1665502269194071</v>
+        <v>0.09798020122593083</v>
       </c>
       <c r="H9">
-        <v>0.05520623697471282</v>
+        <v>0.0324773992071847</v>
       </c>
       <c r="I9">
-        <v>4.258045599377512</v>
+        <v>2.504975059914394</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024121618</v>
       </c>
       <c r="B10">
-        <v>3.109413084962544</v>
+        <v>1.829243498458855</v>
       </c>
       <c r="C10">
-        <v>0.03274128</v>
+        <v>0.01926144</v>
       </c>
       <c r="D10">
-        <v>0.1642987101431127</v>
+        <v>0.09665565144365024</v>
       </c>
       <c r="E10">
-        <v>0.5265029601511985</v>
+        <v>0.3097375904904971</v>
       </c>
       <c r="F10">
-        <v>0.1026167839640696</v>
+        <v>0.06036865471713046</v>
       </c>
       <c r="G10">
-        <v>0.1427573373594917</v>
+        <v>0.08398302962222642</v>
       </c>
       <c r="H10">
-        <v>0.009201039495785471</v>
+        <v>0.005412899867864116</v>
       </c>
       <c r="I10">
-        <v>4.087531196076202</v>
+        <v>2.404662764600223</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024121619</v>
       </c>
       <c r="B11">
-        <v>2.191795395471068</v>
+        <v>1.289416159116023</v>
       </c>
       <c r="C11">
-        <v>0.02827656000000001</v>
+        <v>0.01663488</v>
       </c>
       <c r="D11">
-        <v>0.1432347729452777</v>
+        <v>0.08426390125856686</v>
       </c>
       <c r="E11">
-        <v>0.409502302339821</v>
+        <v>0.240907014825942</v>
       </c>
       <c r="F11">
-        <v>0.05262399177644596</v>
+        <v>0.03095828447032331</v>
       </c>
       <c r="G11">
-        <v>0.08724059505302273</v>
+        <v>0.05132296254691614</v>
       </c>
       <c r="H11">
-        <v>0.02760311848735641</v>
+        <v>0.01623869960359235</v>
       </c>
       <c r="I11">
-        <v>2.940276736072992</v>
+        <v>1.729741901821364</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024121620</v>
       </c>
       <c r="B12">
-        <v>1.857957340817977</v>
+        <v>1.093021831850345</v>
       </c>
       <c r="C12">
-        <v>0.05952960000000002</v>
+        <v>0.03502080000000001</v>
       </c>
       <c r="D12">
-        <v>0.09689411111004091</v>
+        <v>0.0570020508513835</v>
       </c>
       <c r="E12">
-        <v>0.3436894323209211</v>
+        <v>0.20218981601463</v>
       </c>
       <c r="F12">
-        <v>0.04999279218762365</v>
+        <v>0.02941037024680715</v>
       </c>
       <c r="G12">
-        <v>0.1348263741728532</v>
+        <v>0.07931730575432495</v>
       </c>
       <c r="H12">
-        <v>0.009201039495785471</v>
+        <v>0.005412899867864116</v>
       </c>
       <c r="I12">
-        <v>2.552090690105201</v>
+        <v>1.501375074585355</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,28 +757,28 @@
         <v>2024121621</v>
       </c>
       <c r="B13">
-        <v>1.490910265021389</v>
+        <v>0.8770908961132114</v>
       </c>
       <c r="C13">
-        <v>0.0446472</v>
+        <v>0.02626559999999999</v>
       </c>
       <c r="D13">
-        <v>0.07583017391220595</v>
+        <v>0.04461030066630017</v>
       </c>
       <c r="E13">
-        <v>0.2925016445284435</v>
+        <v>0.1720764391613872</v>
       </c>
       <c r="F13">
-        <v>0.02894319547704528</v>
+        <v>0.01702705645867781</v>
       </c>
       <c r="G13">
-        <v>0.08724059505302273</v>
+        <v>0.05132296254691614</v>
       </c>
       <c r="H13">
-        <v>0.01840207899157094</v>
+        <v>0.01082579973572823</v>
       </c>
       <c r="I13">
-        <v>2.038475152983677</v>
+        <v>1.199219054682221</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -786,28 +786,28 @@
         <v>2024121622</v>
       </c>
       <c r="B14">
-        <v>1.130854562097114</v>
+        <v>0.6652729305805948</v>
       </c>
       <c r="C14">
-        <v>0.05060016000000002</v>
+        <v>0.02976767999999999</v>
       </c>
       <c r="D14">
-        <v>0.06319181159350491</v>
+        <v>0.03717525055525015</v>
       </c>
       <c r="E14">
-        <v>0.0950630344717442</v>
+        <v>0.0559248427274508</v>
       </c>
       <c r="F14">
-        <v>0.01841839712175609</v>
+        <v>0.01083539956461315</v>
       </c>
       <c r="G14">
-        <v>0.05551674230646899</v>
+        <v>0.03266006707531031</v>
       </c>
       <c r="H14">
-        <v>0.009201039495785471</v>
+        <v>0.005412899867864116</v>
       </c>
       <c r="I14">
-        <v>1.422845747086374</v>
+        <v>0.8370490703710832</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -815,28 +815,28 @@
         <v>2024121623</v>
       </c>
       <c r="B15">
-        <v>0.7078765033219953</v>
+        <v>0.4164382332073277</v>
       </c>
       <c r="C15">
-        <v>0.03274128</v>
+        <v>0.01926144</v>
       </c>
       <c r="D15">
-        <v>0.05055344927480391</v>
+        <v>0.02974020044420008</v>
       </c>
       <c r="E15">
-        <v>0.06581287001889981</v>
+        <v>0.03871719881131214</v>
       </c>
       <c r="F15">
-        <v>0.03025879527145645</v>
+        <v>0.01780101357043589</v>
       </c>
       <c r="G15">
-        <v>0.09517155823966121</v>
+        <v>0.05598868641481766</v>
       </c>
       <c r="H15">
-        <v>0.009201039495785471</v>
+        <v>0.005412899867864116</v>
       </c>
       <c r="I15">
-        <v>0.991615495622602</v>
+        <v>0.5833596723159575</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -844,28 +844,28 @@
         <v>2024121700</v>
       </c>
       <c r="B16">
-        <v>0.5313443382960166</v>
+        <v>0.3125857355432783</v>
       </c>
       <c r="C16">
-        <v>0.04613543999999999</v>
+        <v>0.02714111999999999</v>
       </c>
       <c r="D16">
-        <v>0.02527672463740195</v>
+        <v>0.01487010022210004</v>
       </c>
       <c r="E16">
-        <v>0.02193762333963326</v>
+        <v>0.01290573293710404</v>
       </c>
       <c r="F16">
-        <v>0.01184039814970035</v>
+        <v>0.006965614005822742</v>
       </c>
       <c r="G16">
-        <v>0.06344770549310744</v>
+        <v>0.03732579094321174</v>
       </c>
       <c r="H16">
-        <v>0.009201039495785471</v>
+        <v>0.005412899867864116</v>
       </c>
       <c r="I16">
-        <v>0.709183269411645</v>
+        <v>0.4172069935193811</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -873,25 +873,25 @@
         <v>2024121701</v>
       </c>
       <c r="B17">
-        <v>0.3390815843073261</v>
+        <v>0.1994790549190656</v>
       </c>
       <c r="C17">
-        <v>0.05208839999999999</v>
+        <v>0.03064319999999999</v>
       </c>
       <c r="E17">
-        <v>0.00731254111321109</v>
+        <v>0.004301910979034681</v>
       </c>
       <c r="F17">
-        <v>0.02499639609381182</v>
+        <v>0.01470518512340358</v>
       </c>
       <c r="G17">
-        <v>0.06344770549310744</v>
+        <v>0.03732579094321174</v>
       </c>
       <c r="H17">
-        <v>0.009201039495785471</v>
+        <v>0.005412899867864116</v>
       </c>
       <c r="I17">
-        <v>0.496127666503242</v>
+        <v>0.2918680418325797</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -899,22 +899,22 @@
         <v>2024121702</v>
       </c>
       <c r="B18">
-        <v>0.2027498132971641</v>
+        <v>0.1192761359309877</v>
       </c>
       <c r="C18">
-        <v>0.04315896</v>
+        <v>0.02539007999999999</v>
       </c>
       <c r="D18">
-        <v>0.02527672463740195</v>
+        <v>0.01487010022210004</v>
       </c>
       <c r="F18">
-        <v>0.01841839712175609</v>
+        <v>0.01083539956461315</v>
       </c>
       <c r="G18">
-        <v>0.111033484612938</v>
+        <v>0.06532013415062062</v>
       </c>
       <c r="I18">
-        <v>0.4006373796692601</v>
+        <v>0.2356918498683215</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -922,25 +922,25 @@
         <v>2024121703</v>
       </c>
       <c r="B19">
-        <v>0.2516894234033762</v>
+        <v>0.1480669273626053</v>
       </c>
       <c r="C19">
-        <v>0.02827656000000001</v>
+        <v>0.01663488</v>
       </c>
       <c r="D19">
-        <v>0.02106393719783495</v>
+        <v>0.01239175018508337</v>
       </c>
       <c r="E19">
-        <v>0.02925016445284436</v>
+        <v>0.01720764391613873</v>
       </c>
       <c r="F19">
-        <v>0.01841839712175609</v>
+        <v>0.01083539956461315</v>
       </c>
       <c r="G19">
-        <v>0.1348263741728532</v>
+        <v>0.07931730575432495</v>
       </c>
       <c r="I19">
-        <v>0.4835248563486648</v>
+        <v>0.2844539067827655</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -948,25 +948,25 @@
         <v>2024121704</v>
       </c>
       <c r="B20">
-        <v>0.4159866859028022</v>
+        <v>0.2447217271687506</v>
       </c>
       <c r="C20">
-        <v>0.02530008000000001</v>
+        <v>0.01488383999999999</v>
       </c>
       <c r="D20">
-        <v>0.0421278743956699</v>
+        <v>0.02478350037016674</v>
       </c>
       <c r="E20">
-        <v>0.01462508222642218</v>
+        <v>0.008603821958069363</v>
       </c>
       <c r="F20">
-        <v>0.03157439506586755</v>
+        <v>0.01857497068219398</v>
       </c>
       <c r="G20">
-        <v>0.1665502269194071</v>
+        <v>0.09798020122593083</v>
       </c>
       <c r="I20">
-        <v>0.696164344510169</v>
+        <v>0.4095480614051115</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -974,28 +974,28 @@
         <v>2024121705</v>
       </c>
       <c r="B21">
-        <v>0.942087494544581</v>
+        <v>0.5542227350586415</v>
       </c>
       <c r="C21">
-        <v>0.02827656000000001</v>
+        <v>0.01663488</v>
       </c>
       <c r="D21">
-        <v>0.09689411111004091</v>
+        <v>0.0570020508513835</v>
       </c>
       <c r="E21">
-        <v>0.1901260689434884</v>
+        <v>0.1118496854549016</v>
       </c>
       <c r="F21">
-        <v>0.0789359876646689</v>
+        <v>0.04643742670548496</v>
       </c>
       <c r="G21">
-        <v>0.261721785159068</v>
+        <v>0.1539688876407485</v>
       </c>
       <c r="H21">
-        <v>0.009201039495785471</v>
+        <v>0.005412899867864116</v>
       </c>
       <c r="I21">
-        <v>1.607243046917633</v>
+        <v>0.9455285655790242</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1003,28 +1003,28 @@
         <v>2024121706</v>
       </c>
       <c r="B22">
-        <v>1.737356158770525</v>
+        <v>1.022073095822428</v>
       </c>
       <c r="C22">
-        <v>0.03125303999999999</v>
+        <v>0.01838592</v>
       </c>
       <c r="D22">
-        <v>0.1727242850222465</v>
+        <v>0.1016123515176836</v>
       </c>
       <c r="E22">
-        <v>0.6800663235286315</v>
+        <v>0.4000777210502252</v>
       </c>
       <c r="F22">
-        <v>0.1355067788243484</v>
+        <v>0.07971758251108253</v>
       </c>
       <c r="G22">
-        <v>0.4282720120784754</v>
+        <v>0.2519490888666791</v>
       </c>
       <c r="H22">
-        <v>0.03680415798314188</v>
+        <v>0.02165159947145646</v>
       </c>
       <c r="I22">
-        <v>3.221982756207368</v>
+        <v>1.895467359239555</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1032,28 +1032,28 @@
         <v>2024121707</v>
       </c>
       <c r="B23">
-        <v>2.445232662092522</v>
+        <v>1.438511329029755</v>
       </c>
       <c r="C23">
-        <v>0.01934712</v>
+        <v>0.01138176</v>
       </c>
       <c r="D23">
-        <v>0.1390219855057107</v>
+        <v>0.08178555122155019</v>
       </c>
       <c r="E23">
-        <v>0.5338155012644097</v>
+        <v>0.3140395014695316</v>
       </c>
       <c r="F23">
-        <v>0.1565563755349267</v>
+        <v>0.09210089629921177</v>
       </c>
       <c r="G23">
-        <v>0.4282720120784754</v>
+        <v>0.2519490888666791</v>
       </c>
       <c r="H23">
-        <v>0.06440727647049832</v>
+        <v>0.03789029907504883</v>
       </c>
       <c r="I23">
-        <v>3.786652932946542</v>
+        <v>2.227658425961776</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1061,28 +1061,28 @@
         <v>2024121708</v>
       </c>
       <c r="B24">
-        <v>2.988811902915091</v>
+        <v>1.758294762430941</v>
       </c>
       <c r="C24">
-        <v>0.04167072</v>
+        <v>0.02451456</v>
       </c>
       <c r="D24">
-        <v>0.2274905217366175</v>
+        <v>0.1338309019989002</v>
       </c>
       <c r="E24">
-        <v>0.2851891034152324</v>
+        <v>0.1677745281823525</v>
       </c>
       <c r="F24">
-        <v>0.1881307706007943</v>
+        <v>0.1106758669814058</v>
       </c>
       <c r="G24">
-        <v>0.6186151285577975</v>
+        <v>0.3639264616963145</v>
       </c>
       <c r="H24">
-        <v>0.08280935546206926</v>
+        <v>0.04871609881077704</v>
       </c>
       <c r="I24">
-        <v>4.432717502687602</v>
+        <v>2.607733180100691</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1090,28 +1090,28 @@
         <v>2024121709</v>
       </c>
       <c r="B25">
-        <v>2.251222064885753</v>
+        <v>1.324376405854415</v>
       </c>
       <c r="C25">
-        <v>0.02678832000000001</v>
+        <v>0.01575936</v>
       </c>
       <c r="D25">
-        <v>0.2148521594179166</v>
+        <v>0.1263958518878504</v>
       </c>
       <c r="E25">
-        <v>0.6069409123965206</v>
+        <v>0.3570586112598784</v>
       </c>
       <c r="F25">
-        <v>0.2131271666946059</v>
+        <v>0.1253810521048094</v>
       </c>
       <c r="G25">
-        <v>0.991370398329804</v>
+        <v>0.5832154834876838</v>
       </c>
       <c r="H25">
-        <v>0.1656187109241385</v>
+        <v>0.09743219762155407</v>
       </c>
       <c r="I25">
-        <v>4.469919732648738</v>
+        <v>2.629618962216191</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1119,28 +1119,28 @@
         <v>2024121710</v>
       </c>
       <c r="B26">
-        <v>1.912140480578428</v>
+        <v>1.124897350935349</v>
       </c>
       <c r="C26">
-        <v>0.02530008000000001</v>
+        <v>0.01488383999999999</v>
       </c>
       <c r="D26">
-        <v>0.2022137970992156</v>
+        <v>0.1189608017768003</v>
       </c>
       <c r="E26">
-        <v>0.2925016445284435</v>
+        <v>0.1720764391613872</v>
       </c>
       <c r="F26">
-        <v>0.2525951605269404</v>
+        <v>0.1485997654575519</v>
       </c>
       <c r="G26">
-        <v>1.554468784581133</v>
+        <v>0.914481878108687</v>
       </c>
       <c r="H26">
-        <v>0.06440727647049832</v>
+        <v>0.03789029907504883</v>
       </c>
       <c r="I26">
-        <v>4.303627223784658</v>
+        <v>2.531790374514824</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1148,28 +1148,28 @@
         <v>2024121711</v>
       </c>
       <c r="B27">
-        <v>2.293170302119651</v>
+        <v>1.349054227081515</v>
       </c>
       <c r="C27">
-        <v>0.06101783999999999</v>
+        <v>0.03589632</v>
       </c>
       <c r="D27">
-        <v>0.3749380821214623</v>
+        <v>0.2205731532944838</v>
       </c>
       <c r="E27">
-        <v>0.1243131989245884</v>
+        <v>0.07313248664358958</v>
       </c>
       <c r="F27">
-        <v>0.2052335679281392</v>
+        <v>0.1207373094342609</v>
       </c>
       <c r="G27">
-        <v>0.5075816439448595</v>
+        <v>0.2986063275456939</v>
       </c>
       <c r="H27">
-        <v>0.1380155924367821</v>
+        <v>0.0811934980179618</v>
       </c>
       <c r="I27">
-        <v>3.704270227475482</v>
+        <v>2.179193322017505</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1177,28 +1177,28 @@
         <v>2024121712</v>
       </c>
       <c r="B28">
-        <v>2.464458937491392</v>
+        <v>1.449821997092179</v>
       </c>
       <c r="C28">
-        <v>0.06250607999999998</v>
+        <v>0.03677183999999999</v>
       </c>
       <c r="D28">
-        <v>0.345448570044493</v>
+        <v>0.2032247030353671</v>
       </c>
       <c r="E28">
-        <v>0.0950630344717442</v>
+        <v>0.0559248427274508</v>
       </c>
       <c r="F28">
-        <v>0.2197051656666618</v>
+        <v>0.1292508376635998</v>
       </c>
       <c r="G28">
-        <v>0.4758577911983061</v>
+        <v>0.279943432074088</v>
       </c>
       <c r="H28">
-        <v>0.1288145529409966</v>
+        <v>0.07578059815009766</v>
       </c>
       <c r="I28">
-        <v>3.791854131813594</v>
+        <v>2.230718250742783</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1206,28 +1206,28 @@
         <v>2024121713</v>
       </c>
       <c r="B29">
-        <v>2.424258543475573</v>
+        <v>1.426172418416206</v>
       </c>
       <c r="C29">
-        <v>0.05655312000000002</v>
+        <v>0.03326976000000001</v>
       </c>
       <c r="D29">
-        <v>0.3075334830883906</v>
+        <v>0.1809195527022172</v>
       </c>
       <c r="E29">
-        <v>0.1316257400377996</v>
+        <v>0.07743439762262427</v>
       </c>
       <c r="F29">
-        <v>0.2591731594989968</v>
+        <v>0.1524695510163423</v>
       </c>
       <c r="G29">
-        <v>0.4917197175715831</v>
+        <v>0.2892748798098912</v>
       </c>
       <c r="H29">
-        <v>0.1288145529409966</v>
+        <v>0.07578059815009766</v>
       </c>
       <c r="I29">
-        <v>3.79967831661334</v>
+        <v>2.235321157717379</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1235,28 +1235,28 @@
         <v>2024121714</v>
       </c>
       <c r="B30">
-        <v>2.502911488289129</v>
+        <v>1.47244333321702</v>
       </c>
       <c r="C30">
-        <v>0.06101783999999999</v>
+        <v>0.03589632</v>
       </c>
       <c r="D30">
-        <v>0.3875764444401636</v>
+        <v>0.228008203405534</v>
       </c>
       <c r="E30">
-        <v>0.1316257400377996</v>
+        <v>0.07743439762262427</v>
       </c>
       <c r="F30">
-        <v>0.2262831646387176</v>
+        <v>0.1331206232223901</v>
       </c>
       <c r="G30">
-        <v>0.3965481593319217</v>
+        <v>0.2332861933950733</v>
       </c>
       <c r="H30">
-        <v>0.09201039495785474</v>
+        <v>0.05412899867864118</v>
       </c>
       <c r="I30">
-        <v>3.797973231695586</v>
+        <v>2.234318069541283</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1264,28 +1264,28 @@
         <v>2024121715</v>
       </c>
       <c r="B31">
-        <v>2.562338157703815</v>
+        <v>1.507403579955412</v>
       </c>
       <c r="C31">
-        <v>0.05506488</v>
+        <v>0.03239423999999999</v>
       </c>
       <c r="D31">
-        <v>0.4254915313962664</v>
+        <v>0.2503133537386836</v>
       </c>
       <c r="E31">
-        <v>0.2047511511699105</v>
+        <v>0.120453507412971</v>
       </c>
       <c r="F31">
-        <v>0.1933931697784388</v>
+        <v>0.1137716954284382</v>
       </c>
       <c r="G31">
-        <v>0.3331004538388142</v>
+        <v>0.1959604024518617</v>
       </c>
       <c r="H31">
-        <v>0.1380155924367821</v>
+        <v>0.0811934980179618</v>
       </c>
       <c r="I31">
-        <v>3.912154936324026</v>
+        <v>2.301490277005328</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1293,28 +1293,28 @@
         <v>2024121716</v>
       </c>
       <c r="B32">
-        <v>2.826262483633746</v>
+        <v>1.662668205175923</v>
       </c>
       <c r="C32">
-        <v>0.05952960000000002</v>
+        <v>0.03502080000000001</v>
       </c>
       <c r="D32">
-        <v>0.3707252946818955</v>
+        <v>0.2180948032574671</v>
       </c>
       <c r="E32">
-        <v>0.2486263978491769</v>
+        <v>0.1462649732871792</v>
       </c>
       <c r="F32">
-        <v>0.1907619701896164</v>
+        <v>0.112223781204922</v>
       </c>
       <c r="G32">
-        <v>0.2141360060392377</v>
+        <v>0.1259745444333396</v>
       </c>
       <c r="H32">
-        <v>0.2392270268904223</v>
+        <v>0.1407353965644671</v>
       </c>
       <c r="I32">
-        <v>4.149268779284095</v>
+        <v>2.440982503923297</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1322,28 +1322,28 @@
         <v>2024121717</v>
       </c>
       <c r="B33">
-        <v>3.137378576451807</v>
+        <v>1.84569537927692</v>
       </c>
       <c r="C33">
-        <v>0.03869424</v>
+        <v>0.02276352</v>
       </c>
       <c r="D33">
-        <v>0.2864695458905553</v>
+        <v>0.1685278025171337</v>
       </c>
       <c r="E33">
-        <v>0.3802521378869768</v>
+        <v>0.2236993709098032</v>
       </c>
       <c r="F33">
-        <v>0.185499571011972</v>
+        <v>0.1091279527578896</v>
       </c>
       <c r="G33">
-        <v>0.182412153292684</v>
+        <v>0.1073116489617338</v>
       </c>
       <c r="H33">
-        <v>0.06440727647049832</v>
+        <v>0.03789029907504883</v>
       </c>
       <c r="I33">
-        <v>4.275113501004492</v>
+        <v>2.515015973498529</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1351,28 +1351,28 @@
         <v>2024121718</v>
       </c>
       <c r="B34">
-        <v>3.046490729111701</v>
+        <v>1.792226766618203</v>
       </c>
       <c r="C34">
-        <v>0.02530008000000001</v>
+        <v>0.01488383999999999</v>
       </c>
       <c r="D34">
-        <v>0.2359160966157515</v>
+        <v>0.1387876020729337</v>
       </c>
       <c r="E34">
-        <v>0.5118778779247762</v>
+        <v>0.3011337685324276</v>
       </c>
       <c r="F34">
-        <v>0.09998558437524729</v>
+        <v>0.05882074049361431</v>
       </c>
       <c r="G34">
-        <v>0.1586192637327687</v>
+        <v>0.09331447735802935</v>
       </c>
       <c r="H34">
-        <v>0.009201039495785471</v>
+        <v>0.005412899867864116</v>
       </c>
       <c r="I34">
-        <v>4.08739067125603</v>
+        <v>2.404580094943073</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1380,28 +1380,28 @@
         <v>2024121719</v>
       </c>
       <c r="B35">
-        <v>2.148099315019091</v>
+        <v>1.263710095337792</v>
       </c>
       <c r="C35">
-        <v>0.0223236</v>
+        <v>0.01313279999999999</v>
       </c>
       <c r="D35">
-        <v>0.2064265845387826</v>
+        <v>0.121439151813817</v>
       </c>
       <c r="E35">
-        <v>0.3948772201133987</v>
+        <v>0.2323031928678728</v>
       </c>
       <c r="F35">
-        <v>0.0513083919820348</v>
+        <v>0.03018432735856523</v>
       </c>
       <c r="G35">
-        <v>0.09517155823966121</v>
+        <v>0.05598868641481766</v>
       </c>
       <c r="H35">
-        <v>0.02760311848735641</v>
+        <v>0.01623869960359235</v>
       </c>
       <c r="I35">
-        <v>2.945809788380326</v>
+        <v>1.732996953396457</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1409,28 +1409,28 @@
         <v>2024121720</v>
       </c>
       <c r="B36">
-        <v>1.82125263323832</v>
+        <v>1.07142873827663</v>
       </c>
       <c r="C36">
-        <v>0.04613543999999999</v>
+        <v>0.02714111999999999</v>
       </c>
       <c r="D36">
-        <v>0.1390219855057107</v>
+        <v>0.08178555122155019</v>
       </c>
       <c r="E36">
-        <v>0.3363768912077103</v>
+        <v>0.1978879050355953</v>
       </c>
       <c r="F36">
-        <v>0.04867719239321253</v>
+        <v>0.02863641313504904</v>
       </c>
       <c r="G36">
-        <v>0.1506883005461302</v>
+        <v>0.08864875349012784</v>
       </c>
       <c r="H36">
-        <v>0.009201039495785471</v>
+        <v>0.005412899867864116</v>
       </c>
       <c r="I36">
-        <v>2.551353482386869</v>
+        <v>1.500941381026817</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1438,28 +1438,28 @@
         <v>2024121721</v>
       </c>
       <c r="B37">
-        <v>1.461196930314046</v>
+        <v>0.8596107727440145</v>
       </c>
       <c r="C37">
-        <v>0.03422952</v>
+        <v>0.02013696</v>
       </c>
       <c r="D37">
-        <v>0.1095324734287419</v>
+        <v>0.06443710096243348</v>
       </c>
       <c r="E37">
-        <v>0.2851891034152324</v>
+        <v>0.1677745281823525</v>
       </c>
       <c r="F37">
-        <v>0.02762759568263413</v>
+        <v>0.01625309934691972</v>
       </c>
       <c r="G37">
-        <v>0.09517155823966121</v>
+        <v>0.05598868641481766</v>
       </c>
       <c r="H37">
-        <v>0.01840207899157094</v>
+        <v>0.01082579973572823</v>
       </c>
       <c r="I37">
-        <v>2.031349260071887</v>
+        <v>1.195026947386266</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1467,28 +1467,28 @@
         <v>2024121722</v>
       </c>
       <c r="B38">
-        <v>1.108132600262086</v>
+        <v>0.6519057774159155</v>
       </c>
       <c r="C38">
-        <v>0.03869424</v>
+        <v>0.02276352</v>
       </c>
       <c r="D38">
-        <v>0.09268132367047388</v>
+        <v>0.05452370081436676</v>
       </c>
       <c r="E38">
-        <v>0.0950630344717442</v>
+        <v>0.0559248427274508</v>
       </c>
       <c r="F38">
-        <v>0.01841839712175609</v>
+        <v>0.01083539956461315</v>
       </c>
       <c r="G38">
-        <v>0.06344770549310744</v>
+        <v>0.03732579094321174</v>
       </c>
       <c r="H38">
-        <v>0.009201039495785471</v>
+        <v>0.005412899867864116</v>
       </c>
       <c r="I38">
-        <v>1.425638340514954</v>
+        <v>0.838691931333422</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1496,28 +1496,28 @@
         <v>2024121723</v>
       </c>
       <c r="B39">
-        <v>0.6938937575773634</v>
+        <v>0.408212292798294</v>
       </c>
       <c r="C39">
-        <v>0.02530008000000001</v>
+        <v>0.01488383999999999</v>
       </c>
       <c r="D39">
-        <v>0.07161738647263884</v>
+        <v>0.04213195062928343</v>
       </c>
       <c r="E39">
-        <v>0.06581287001889981</v>
+        <v>0.03871719881131214</v>
       </c>
       <c r="F39">
-        <v>0.02894319547704528</v>
+        <v>0.01702705645867781</v>
       </c>
       <c r="G39">
-        <v>0.1031025214262996</v>
+        <v>0.06065441028271906</v>
       </c>
       <c r="H39">
-        <v>0.009201039495785471</v>
+        <v>0.005412899867864116</v>
       </c>
       <c r="I39">
-        <v>0.9978708504680324</v>
+        <v>0.5870396488481505</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1525,28 +1525,28 @@
         <v>2024121800</v>
       </c>
       <c r="B40">
-        <v>0.5208572789875424</v>
+        <v>0.3064162802365029</v>
       </c>
       <c r="C40">
-        <v>0.03571776</v>
+        <v>0.02101247999999999</v>
       </c>
       <c r="D40">
-        <v>0.03791508695610298</v>
+        <v>0.02230515033315009</v>
       </c>
       <c r="E40">
-        <v>0.02193762333963326</v>
+        <v>0.01290573293710404</v>
       </c>
       <c r="F40">
-        <v>0.01184039814970035</v>
+        <v>0.006965614005822742</v>
       </c>
       <c r="G40">
-        <v>0.07137866867974586</v>
+        <v>0.04199151481111321</v>
       </c>
       <c r="H40">
-        <v>0.009201039495785471</v>
+        <v>0.005412899867864116</v>
       </c>
       <c r="I40">
-        <v>0.7088478556085104</v>
+        <v>0.4170096721915571</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1554,25 +1554,25 @@
         <v>2024121801</v>
       </c>
       <c r="B41">
-        <v>0.3320902114350096</v>
+        <v>0.1953660847145487</v>
       </c>
       <c r="C41">
-        <v>0.04018247999999999</v>
+        <v>0.02363904</v>
       </c>
       <c r="E41">
-        <v>0.00731254111321109</v>
+        <v>0.004301910979034681</v>
       </c>
       <c r="F41">
-        <v>0.02499639609381182</v>
+        <v>0.01470518512340358</v>
       </c>
       <c r="G41">
-        <v>0.07137866867974586</v>
+        <v>0.04199151481111321</v>
       </c>
       <c r="H41">
-        <v>0.009201039495785471</v>
+        <v>0.005412899867864116</v>
       </c>
       <c r="I41">
-        <v>0.4851613368175638</v>
+        <v>0.2854166354959644</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1580,22 +1580,22 @@
         <v>2024121802</v>
       </c>
       <c r="B42">
-        <v>0.1992541268610061</v>
+        <v>0.1172196508287293</v>
       </c>
       <c r="C42">
-        <v>0.03274128</v>
+        <v>0.01926144</v>
       </c>
       <c r="D42">
-        <v>0.03791508695610298</v>
+        <v>0.02230515033315009</v>
       </c>
       <c r="F42">
-        <v>0.01841839712175609</v>
+        <v>0.01083539956461315</v>
       </c>
       <c r="G42">
-        <v>0.1189644477995765</v>
+        <v>0.069985858018522</v>
       </c>
       <c r="I42">
-        <v>0.4072933387384418</v>
+        <v>0.2396074987450145</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1603,25 +1603,25 @@
         <v>2024121803</v>
       </c>
       <c r="B43">
-        <v>0.2464458937491391</v>
+        <v>0.1449821997092177</v>
       </c>
       <c r="C43">
-        <v>0.0223236</v>
+        <v>0.01313279999999999</v>
       </c>
       <c r="D43">
-        <v>0.02948951207696894</v>
+        <v>0.01734845025911671</v>
       </c>
       <c r="E43">
-        <v>0.02925016445284436</v>
+        <v>0.01720764391613873</v>
       </c>
       <c r="F43">
-        <v>0.01841839712175609</v>
+        <v>0.01083539956461315</v>
       </c>
       <c r="G43">
-        <v>0.1506883005461302</v>
+        <v>0.08864875349012784</v>
       </c>
       <c r="I43">
-        <v>0.4966158679468387</v>
+        <v>0.2921552469392141</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1629,25 +1629,25 @@
         <v>2024121804</v>
       </c>
       <c r="B44">
-        <v>0.4072474698124073</v>
+        <v>0.2395805144131045</v>
       </c>
       <c r="C44">
-        <v>0.01934712</v>
+        <v>0.01138176</v>
       </c>
       <c r="D44">
-        <v>0.05897902415393788</v>
+        <v>0.03469690051823342</v>
       </c>
       <c r="E44">
-        <v>0.01462508222642218</v>
+        <v>0.008603821958069363</v>
       </c>
       <c r="F44">
-        <v>0.03025879527145645</v>
+        <v>0.01780101357043589</v>
       </c>
       <c r="G44">
-        <v>0.182412153292684</v>
+        <v>0.1073116489617338</v>
       </c>
       <c r="I44">
-        <v>0.7128696447569078</v>
+        <v>0.419375659421577</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1655,28 +1655,28 @@
         <v>2024121805</v>
       </c>
       <c r="B45">
-        <v>0.9228612191457123</v>
+        <v>0.5429120669962199</v>
       </c>
       <c r="C45">
-        <v>0.0223236</v>
+        <v>0.01313279999999999</v>
       </c>
       <c r="D45">
-        <v>0.1390219855057107</v>
+        <v>0.08178555122155019</v>
       </c>
       <c r="E45">
-        <v>0.1828135278302772</v>
+        <v>0.107547774475867</v>
       </c>
       <c r="F45">
-        <v>0.07630478807584663</v>
+        <v>0.04488951248196878</v>
       </c>
       <c r="G45">
-        <v>0.2855146747189835</v>
+        <v>0.1679660592444528</v>
       </c>
       <c r="H45">
-        <v>0.009201039495785471</v>
+        <v>0.005412899867864116</v>
       </c>
       <c r="I45">
-        <v>1.638040834772316</v>
+        <v>0.9636466642879227</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1684,28 +1684,28 @@
         <v>2024121806</v>
       </c>
       <c r="B46">
-        <v>1.702399294408947</v>
+        <v>1.001508244799845</v>
       </c>
       <c r="C46">
-        <v>0.02381184</v>
+        <v>0.01400832</v>
       </c>
       <c r="D46">
-        <v>0.2485544589344524</v>
+        <v>0.1462226521839838</v>
       </c>
       <c r="E46">
-        <v>0.6581287001889979</v>
+        <v>0.3871719881131215</v>
       </c>
       <c r="F46">
-        <v>0.1315599794411149</v>
+        <v>0.07739571117580826</v>
       </c>
       <c r="G46">
-        <v>0.4679268280116676</v>
+        <v>0.2752777082061868</v>
       </c>
       <c r="H46">
-        <v>0.03680415798314188</v>
+        <v>0.02165159947145646</v>
       </c>
       <c r="I46">
-        <v>3.269185258968322</v>
+        <v>1.923236223950402</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1713,28 +1713,28 @@
         <v>2024121807</v>
       </c>
       <c r="B47">
-        <v>2.396293051986309</v>
+        <v>1.409720537598138</v>
       </c>
       <c r="C47">
-        <v>0.0148824</v>
+        <v>0.008755200000000003</v>
       </c>
       <c r="D47">
-        <v>0.2022137970992156</v>
+        <v>0.1189608017768003</v>
       </c>
       <c r="E47">
-        <v>0.5191904190379873</v>
+        <v>0.3054356795114621</v>
       </c>
       <c r="F47">
-        <v>0.1526095761516933</v>
+        <v>0.08977902496393757</v>
       </c>
       <c r="G47">
-        <v>0.4679268280116676</v>
+        <v>0.2752777082061868</v>
       </c>
       <c r="H47">
-        <v>0.07360831596628377</v>
+        <v>0.04330319894291293</v>
       </c>
       <c r="I47">
-        <v>3.826724388253157</v>
+        <v>2.251232150999438</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1742,28 +1742,28 @@
         <v>2024121808</v>
       </c>
       <c r="B48">
-        <v>2.929385233500406</v>
+        <v>1.723334515692548</v>
       </c>
       <c r="C48">
-        <v>0.03274128</v>
+        <v>0.01926144</v>
       </c>
       <c r="D48">
-        <v>0.3285974202862255</v>
+        <v>0.1933113028873005</v>
       </c>
       <c r="E48">
-        <v>0.2778765623020213</v>
+        <v>0.1634726172033178</v>
       </c>
       <c r="F48">
-        <v>0.1828683714231497</v>
+        <v>0.1075800385343734</v>
       </c>
       <c r="G48">
-        <v>0.674131870864267</v>
+        <v>0.3965865287716247</v>
       </c>
       <c r="H48">
-        <v>0.09201039495785474</v>
+        <v>0.05412899867864118</v>
       </c>
       <c r="I48">
-        <v>4.517611133333926</v>
+        <v>2.657675441767805</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1771,28 +1771,28 @@
         <v>2024121809</v>
       </c>
       <c r="B49">
-        <v>2.205778141215701</v>
+        <v>1.297642099525055</v>
       </c>
       <c r="C49">
-        <v>0.02083536</v>
+        <v>0.01225728</v>
       </c>
       <c r="D49">
-        <v>0.3075334830883906</v>
+        <v>0.1809195527022172</v>
       </c>
       <c r="E49">
-        <v>0.5923158301700984</v>
+        <v>0.348454789301809</v>
       </c>
       <c r="F49">
-        <v>0.2078647675169615</v>
+        <v>0.1222852236577771</v>
       </c>
       <c r="G49">
-        <v>1.078610993382826</v>
+        <v>0.6345384460345996</v>
       </c>
       <c r="H49">
-        <v>0.1840207899157095</v>
+        <v>0.1082579973572824</v>
       </c>
       <c r="I49">
-        <v>4.596959365289686</v>
+        <v>2.70435538857874</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기동로_E_겨울_배출량/경기동로_E_겨울_배출량_SOx.xlsx
+++ b/output/경기동로_E_겨울_배출량/경기동로_E_겨울_배출량_SOx.xlsx
@@ -438,28 +438,28 @@
         <v>2024121610</v>
       </c>
       <c r="B2">
-        <v>1.147518687060193</v>
+        <v>1.950593031376165</v>
       </c>
       <c r="C2">
-        <v>0.01926144</v>
+        <v>0.03274128</v>
       </c>
       <c r="D2">
-        <v>0.08178555122155019</v>
+        <v>0.1390219855057107</v>
       </c>
       <c r="E2">
-        <v>0.1763783501404218</v>
+        <v>0.2998141856416546</v>
       </c>
       <c r="F2">
-        <v>0.1524695510163423</v>
+        <v>0.2591731594989968</v>
       </c>
       <c r="G2">
-        <v>0.8398302962222632</v>
+        <v>1.427573373594918</v>
       </c>
       <c r="H2">
-        <v>0.0324773992071847</v>
+        <v>0.05520623697471282</v>
       </c>
       <c r="I2">
-        <v>2.449721274867955</v>
+        <v>4.164123252592158</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024121611</v>
       </c>
       <c r="B3">
-        <v>1.376816775962005</v>
+        <v>2.340362069007782</v>
       </c>
       <c r="C3">
-        <v>0.04640256</v>
+        <v>0.07887672000000001</v>
       </c>
       <c r="D3">
-        <v>0.1536577022950337</v>
+        <v>0.2611928212531535</v>
       </c>
       <c r="E3">
-        <v>0.07743439762262427</v>
+        <v>0.1316257400377996</v>
       </c>
       <c r="F3">
-        <v>0.1238331378812932</v>
+        <v>0.2104959671057839</v>
       </c>
       <c r="G3">
-        <v>0.2752777082061868</v>
+        <v>0.4679268280116676</v>
       </c>
       <c r="H3">
-        <v>0.07578059815009766</v>
+        <v>0.1288145529409966</v>
       </c>
       <c r="I3">
-        <v>2.129202880117241</v>
+        <v>3.619294698357183</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024121612</v>
       </c>
       <c r="B4">
-        <v>1.479641031074925</v>
+        <v>2.515146390815684</v>
       </c>
       <c r="C4">
-        <v>0.0481536</v>
+        <v>0.0818532</v>
       </c>
       <c r="D4">
-        <v>0.1412659521099503</v>
+        <v>0.2401288840553186</v>
       </c>
       <c r="E4">
-        <v>0.0559248427274508</v>
+        <v>0.0950630344717442</v>
       </c>
       <c r="F4">
-        <v>0.1323466661106321</v>
+        <v>0.2249675648443065</v>
       </c>
       <c r="G4">
-        <v>0.2566148127345806</v>
+        <v>0.4362029752651133</v>
       </c>
       <c r="H4">
-        <v>0.07036769828223353</v>
+        <v>0.1196135134452112</v>
       </c>
       <c r="I4">
-        <v>2.184314603039772</v>
+        <v>3.712975562897377</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024121613</v>
       </c>
       <c r="B5">
-        <v>1.454963209847824</v>
+        <v>2.473198153581785</v>
       </c>
       <c r="C5">
-        <v>0.04290047999999999</v>
+        <v>0.07292376000000002</v>
       </c>
       <c r="D5">
-        <v>0.1263958518878504</v>
+        <v>0.2148521594179166</v>
       </c>
       <c r="E5">
-        <v>0.08173630860165888</v>
+        <v>0.1389382811510107</v>
       </c>
       <c r="F5">
-        <v>0.1563393365751325</v>
+        <v>0.2657511584710523</v>
       </c>
       <c r="G5">
-        <v>0.2659462604703833</v>
+        <v>0.452064901638391</v>
       </c>
       <c r="H5">
-        <v>0.07036769828223353</v>
+        <v>0.1196135134452112</v>
       </c>
       <c r="I5">
-        <v>2.198649145665082</v>
+        <v>3.737341927705367</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024121614</v>
       </c>
       <c r="B6">
-        <v>1.502262367199767</v>
+        <v>2.553598941613419</v>
       </c>
       <c r="C6">
-        <v>0.04640256</v>
+        <v>0.07887672000000001</v>
       </c>
       <c r="D6">
-        <v>0.1586144023690672</v>
+        <v>0.2696183961322873</v>
       </c>
       <c r="E6">
-        <v>0.08173630860165888</v>
+        <v>0.1389382811510107</v>
       </c>
       <c r="F6">
-        <v>0.1362164516694225</v>
+        <v>0.2315455638163623</v>
       </c>
       <c r="G6">
-        <v>0.2146232979234676</v>
+        <v>0.364824306585368</v>
       </c>
       <c r="H6">
-        <v>0.04871609881077704</v>
+        <v>0.08280935546206926</v>
       </c>
       <c r="I6">
-        <v>2.18857148657416</v>
+        <v>3.720211564760516</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024121615</v>
       </c>
       <c r="B7">
-        <v>1.538250856489289</v>
+        <v>2.614773454246186</v>
       </c>
       <c r="C7">
-        <v>0.04202495999999999</v>
+        <v>0.07143552</v>
       </c>
       <c r="D7">
-        <v>0.173484502591167</v>
+        <v>0.2948951207696898</v>
       </c>
       <c r="E7">
-        <v>0.1247554183920057</v>
+        <v>0.2120636922831217</v>
       </c>
       <c r="F7">
-        <v>0.1168675238754705</v>
+        <v>0.1986555689560834</v>
       </c>
       <c r="G7">
-        <v>0.1819632308481573</v>
+        <v>0.3093075642788988</v>
       </c>
       <c r="H7">
-        <v>0.07578059815009766</v>
+        <v>0.1288145529409966</v>
       </c>
       <c r="I7">
-        <v>2.253127090346188</v>
+        <v>3.829945473474976</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024121616</v>
       </c>
       <c r="B8">
-        <v>1.696600209363187</v>
+        <v>2.883941309830352</v>
       </c>
       <c r="C8">
-        <v>0.04552704</v>
+        <v>0.07738848000000001</v>
       </c>
       <c r="D8">
-        <v>0.151179352258017</v>
+        <v>0.2569800338135868</v>
       </c>
       <c r="E8">
-        <v>0.1505668842662138</v>
+        <v>0.2559389389623881</v>
       </c>
       <c r="F8">
-        <v>0.1153196096519543</v>
+        <v>0.1960243693672611</v>
       </c>
       <c r="G8">
-        <v>0.1166430966975366</v>
+        <v>0.1982740796659608</v>
       </c>
       <c r="H8">
-        <v>0.1299095968287388</v>
+        <v>0.2208249478988513</v>
       </c>
       <c r="I8">
-        <v>2.405745789065648</v>
+        <v>4.0893721595384</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024121617</v>
       </c>
       <c r="B9">
-        <v>1.883740353668701</v>
+        <v>3.202048775520729</v>
       </c>
       <c r="C9">
-        <v>0.02976767999999999</v>
+        <v>0.05060016000000002</v>
       </c>
       <c r="D9">
-        <v>0.1164824517397836</v>
+        <v>0.1980010096596488</v>
       </c>
       <c r="E9">
-        <v>0.2323031928678728</v>
+        <v>0.3948772201133987</v>
       </c>
       <c r="F9">
-        <v>0.112223781204922</v>
+        <v>0.1907619701896164</v>
       </c>
       <c r="G9">
-        <v>0.09798020122593083</v>
+        <v>0.1665502269194071</v>
       </c>
       <c r="H9">
-        <v>0.0324773992071847</v>
+        <v>0.05520623697471282</v>
       </c>
       <c r="I9">
-        <v>2.504975059914394</v>
+        <v>4.258045599377512</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024121618</v>
       </c>
       <c r="B10">
-        <v>1.829243498458855</v>
+        <v>3.109413084962544</v>
       </c>
       <c r="C10">
-        <v>0.01926144</v>
+        <v>0.03274128</v>
       </c>
       <c r="D10">
-        <v>0.09665565144365024</v>
+        <v>0.1642987101431127</v>
       </c>
       <c r="E10">
-        <v>0.3097375904904971</v>
+        <v>0.5265029601511985</v>
       </c>
       <c r="F10">
-        <v>0.06036865471713046</v>
+        <v>0.1026167839640696</v>
       </c>
       <c r="G10">
-        <v>0.08398302962222642</v>
+        <v>0.1427573373594917</v>
       </c>
       <c r="H10">
-        <v>0.005412899867864116</v>
+        <v>0.009201039495785471</v>
       </c>
       <c r="I10">
-        <v>2.404662764600223</v>
+        <v>4.087531196076202</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024121619</v>
       </c>
       <c r="B11">
-        <v>1.289416159116023</v>
+        <v>2.191795395471068</v>
       </c>
       <c r="C11">
-        <v>0.01663488</v>
+        <v>0.02827656000000001</v>
       </c>
       <c r="D11">
-        <v>0.08426390125856686</v>
+        <v>0.1432347729452777</v>
       </c>
       <c r="E11">
-        <v>0.240907014825942</v>
+        <v>0.409502302339821</v>
       </c>
       <c r="F11">
-        <v>0.03095828447032331</v>
+        <v>0.05262399177644596</v>
       </c>
       <c r="G11">
-        <v>0.05132296254691614</v>
+        <v>0.08724059505302273</v>
       </c>
       <c r="H11">
-        <v>0.01623869960359235</v>
+        <v>0.02760311848735641</v>
       </c>
       <c r="I11">
-        <v>1.729741901821364</v>
+        <v>2.940276736072992</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024121620</v>
       </c>
       <c r="B12">
-        <v>1.093021831850345</v>
+        <v>1.857957340817977</v>
       </c>
       <c r="C12">
-        <v>0.03502080000000001</v>
+        <v>0.05952960000000002</v>
       </c>
       <c r="D12">
-        <v>0.0570020508513835</v>
+        <v>0.09689411111004091</v>
       </c>
       <c r="E12">
-        <v>0.20218981601463</v>
+        <v>0.3436894323209211</v>
       </c>
       <c r="F12">
-        <v>0.02941037024680715</v>
+        <v>0.04999279218762365</v>
       </c>
       <c r="G12">
-        <v>0.07931730575432495</v>
+        <v>0.1348263741728532</v>
       </c>
       <c r="H12">
-        <v>0.005412899867864116</v>
+        <v>0.009201039495785471</v>
       </c>
       <c r="I12">
-        <v>1.501375074585355</v>
+        <v>2.552090690105201</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,28 +757,28 @@
         <v>2024121621</v>
       </c>
       <c r="B13">
-        <v>0.8770908961132114</v>
+        <v>1.490910265021389</v>
       </c>
       <c r="C13">
-        <v>0.02626559999999999</v>
+        <v>0.0446472</v>
       </c>
       <c r="D13">
-        <v>0.04461030066630017</v>
+        <v>0.07583017391220595</v>
       </c>
       <c r="E13">
-        <v>0.1720764391613872</v>
+        <v>0.2925016445284435</v>
       </c>
       <c r="F13">
-        <v>0.01702705645867781</v>
+        <v>0.02894319547704528</v>
       </c>
       <c r="G13">
-        <v>0.05132296254691614</v>
+        <v>0.08724059505302273</v>
       </c>
       <c r="H13">
-        <v>0.01082579973572823</v>
+        <v>0.01840207899157094</v>
       </c>
       <c r="I13">
-        <v>1.199219054682221</v>
+        <v>2.038475152983677</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -786,28 +786,28 @@
         <v>2024121622</v>
       </c>
       <c r="B14">
-        <v>0.6652729305805948</v>
+        <v>1.130854562097114</v>
       </c>
       <c r="C14">
-        <v>0.02976767999999999</v>
+        <v>0.05060016000000002</v>
       </c>
       <c r="D14">
-        <v>0.03717525055525015</v>
+        <v>0.06319181159350491</v>
       </c>
       <c r="E14">
-        <v>0.0559248427274508</v>
+        <v>0.0950630344717442</v>
       </c>
       <c r="F14">
-        <v>0.01083539956461315</v>
+        <v>0.01841839712175609</v>
       </c>
       <c r="G14">
-        <v>0.03266006707531031</v>
+        <v>0.05551674230646899</v>
       </c>
       <c r="H14">
-        <v>0.005412899867864116</v>
+        <v>0.009201039495785471</v>
       </c>
       <c r="I14">
-        <v>0.8370490703710832</v>
+        <v>1.422845747086374</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -815,28 +815,28 @@
         <v>2024121623</v>
       </c>
       <c r="B15">
-        <v>0.4164382332073277</v>
+        <v>0.7078765033219953</v>
       </c>
       <c r="C15">
-        <v>0.01926144</v>
+        <v>0.03274128</v>
       </c>
       <c r="D15">
-        <v>0.02974020044420008</v>
+        <v>0.05055344927480391</v>
       </c>
       <c r="E15">
-        <v>0.03871719881131214</v>
+        <v>0.06581287001889981</v>
       </c>
       <c r="F15">
-        <v>0.01780101357043589</v>
+        <v>0.03025879527145645</v>
       </c>
       <c r="G15">
-        <v>0.05598868641481766</v>
+        <v>0.09517155823966121</v>
       </c>
       <c r="H15">
-        <v>0.005412899867864116</v>
+        <v>0.009201039495785471</v>
       </c>
       <c r="I15">
-        <v>0.5833596723159575</v>
+        <v>0.991615495622602</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -844,28 +844,28 @@
         <v>2024121700</v>
       </c>
       <c r="B16">
-        <v>0.3125857355432783</v>
+        <v>0.5313443382960166</v>
       </c>
       <c r="C16">
-        <v>0.02714111999999999</v>
+        <v>0.04613543999999999</v>
       </c>
       <c r="D16">
-        <v>0.01487010022210004</v>
+        <v>0.02527672463740195</v>
       </c>
       <c r="E16">
-        <v>0.01290573293710404</v>
+        <v>0.02193762333963326</v>
       </c>
       <c r="F16">
-        <v>0.006965614005822742</v>
+        <v>0.01184039814970035</v>
       </c>
       <c r="G16">
-        <v>0.03732579094321174</v>
+        <v>0.06344770549310744</v>
       </c>
       <c r="H16">
-        <v>0.005412899867864116</v>
+        <v>0.009201039495785471</v>
       </c>
       <c r="I16">
-        <v>0.4172069935193811</v>
+        <v>0.709183269411645</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -873,25 +873,25 @@
         <v>2024121701</v>
       </c>
       <c r="B17">
-        <v>0.1994790549190656</v>
+        <v>0.3390815843073261</v>
       </c>
       <c r="C17">
-        <v>0.03064319999999999</v>
+        <v>0.05208839999999999</v>
       </c>
       <c r="E17">
-        <v>0.004301910979034681</v>
+        <v>0.00731254111321109</v>
       </c>
       <c r="F17">
-        <v>0.01470518512340358</v>
+        <v>0.02499639609381182</v>
       </c>
       <c r="G17">
-        <v>0.03732579094321174</v>
+        <v>0.06344770549310744</v>
       </c>
       <c r="H17">
-        <v>0.005412899867864116</v>
+        <v>0.009201039495785471</v>
       </c>
       <c r="I17">
-        <v>0.2918680418325797</v>
+        <v>0.496127666503242</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -899,22 +899,22 @@
         <v>2024121702</v>
       </c>
       <c r="B18">
-        <v>0.1192761359309877</v>
+        <v>0.2027498132971641</v>
       </c>
       <c r="C18">
-        <v>0.02539007999999999</v>
+        <v>0.04315896</v>
       </c>
       <c r="D18">
-        <v>0.01487010022210004</v>
+        <v>0.02527672463740195</v>
       </c>
       <c r="F18">
-        <v>0.01083539956461315</v>
+        <v>0.01841839712175609</v>
       </c>
       <c r="G18">
-        <v>0.06532013415062062</v>
+        <v>0.111033484612938</v>
       </c>
       <c r="I18">
-        <v>0.2356918498683215</v>
+        <v>0.4006373796692601</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -922,25 +922,25 @@
         <v>2024121703</v>
       </c>
       <c r="B19">
-        <v>0.1480669273626053</v>
+        <v>0.2516894234033762</v>
       </c>
       <c r="C19">
-        <v>0.01663488</v>
+        <v>0.02827656000000001</v>
       </c>
       <c r="D19">
-        <v>0.01239175018508337</v>
+        <v>0.02106393719783495</v>
       </c>
       <c r="E19">
-        <v>0.01720764391613873</v>
+        <v>0.02925016445284436</v>
       </c>
       <c r="F19">
-        <v>0.01083539956461315</v>
+        <v>0.01841839712175609</v>
       </c>
       <c r="G19">
-        <v>0.07931730575432495</v>
+        <v>0.1348263741728532</v>
       </c>
       <c r="I19">
-        <v>0.2844539067827655</v>
+        <v>0.4835248563486648</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -948,25 +948,25 @@
         <v>2024121704</v>
       </c>
       <c r="B20">
-        <v>0.2447217271687506</v>
+        <v>0.4159866859028022</v>
       </c>
       <c r="C20">
-        <v>0.01488383999999999</v>
+        <v>0.02530008000000001</v>
       </c>
       <c r="D20">
-        <v>0.02478350037016674</v>
+        <v>0.0421278743956699</v>
       </c>
       <c r="E20">
-        <v>0.008603821958069363</v>
+        <v>0.01462508222642218</v>
       </c>
       <c r="F20">
-        <v>0.01857497068219398</v>
+        <v>0.03157439506586755</v>
       </c>
       <c r="G20">
-        <v>0.09798020122593083</v>
+        <v>0.1665502269194071</v>
       </c>
       <c r="I20">
-        <v>0.4095480614051115</v>
+        <v>0.696164344510169</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -974,28 +974,28 @@
         <v>2024121705</v>
       </c>
       <c r="B21">
-        <v>0.5542227350586415</v>
+        <v>0.942087494544581</v>
       </c>
       <c r="C21">
-        <v>0.01663488</v>
+        <v>0.02827656000000001</v>
       </c>
       <c r="D21">
-        <v>0.0570020508513835</v>
+        <v>0.09689411111004091</v>
       </c>
       <c r="E21">
-        <v>0.1118496854549016</v>
+        <v>0.1901260689434884</v>
       </c>
       <c r="F21">
-        <v>0.04643742670548496</v>
+        <v>0.0789359876646689</v>
       </c>
       <c r="G21">
-        <v>0.1539688876407485</v>
+        <v>0.261721785159068</v>
       </c>
       <c r="H21">
-        <v>0.005412899867864116</v>
+        <v>0.009201039495785471</v>
       </c>
       <c r="I21">
-        <v>0.9455285655790242</v>
+        <v>1.607243046917633</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1003,28 +1003,28 @@
         <v>2024121706</v>
       </c>
       <c r="B22">
-        <v>1.022073095822428</v>
+        <v>1.737356158770525</v>
       </c>
       <c r="C22">
-        <v>0.01838592</v>
+        <v>0.03125303999999999</v>
       </c>
       <c r="D22">
-        <v>0.1016123515176836</v>
+        <v>0.1727242850222465</v>
       </c>
       <c r="E22">
-        <v>0.4000777210502252</v>
+        <v>0.6800663235286315</v>
       </c>
       <c r="F22">
-        <v>0.07971758251108253</v>
+        <v>0.1355067788243484</v>
       </c>
       <c r="G22">
-        <v>0.2519490888666791</v>
+        <v>0.4282720120784754</v>
       </c>
       <c r="H22">
-        <v>0.02165159947145646</v>
+        <v>0.03680415798314188</v>
       </c>
       <c r="I22">
-        <v>1.895467359239555</v>
+        <v>3.221982756207368</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1032,28 +1032,28 @@
         <v>2024121707</v>
       </c>
       <c r="B23">
-        <v>1.438511329029755</v>
+        <v>2.445232662092522</v>
       </c>
       <c r="C23">
-        <v>0.01138176</v>
+        <v>0.01934712</v>
       </c>
       <c r="D23">
-        <v>0.08178555122155019</v>
+        <v>0.1390219855057107</v>
       </c>
       <c r="E23">
-        <v>0.3140395014695316</v>
+        <v>0.5338155012644097</v>
       </c>
       <c r="F23">
-        <v>0.09210089629921177</v>
+        <v>0.1565563755349267</v>
       </c>
       <c r="G23">
-        <v>0.2519490888666791</v>
+        <v>0.4282720120784754</v>
       </c>
       <c r="H23">
-        <v>0.03789029907504883</v>
+        <v>0.06440727647049832</v>
       </c>
       <c r="I23">
-        <v>2.227658425961776</v>
+        <v>3.786652932946542</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1061,28 +1061,28 @@
         <v>2024121708</v>
       </c>
       <c r="B24">
-        <v>1.758294762430941</v>
+        <v>2.988811902915091</v>
       </c>
       <c r="C24">
-        <v>0.02451456</v>
+        <v>0.04167072</v>
       </c>
       <c r="D24">
-        <v>0.1338309019989002</v>
+        <v>0.2274905217366175</v>
       </c>
       <c r="E24">
-        <v>0.1677745281823525</v>
+        <v>0.2851891034152324</v>
       </c>
       <c r="F24">
-        <v>0.1106758669814058</v>
+        <v>0.1881307706007943</v>
       </c>
       <c r="G24">
-        <v>0.3639264616963145</v>
+        <v>0.6186151285577975</v>
       </c>
       <c r="H24">
-        <v>0.04871609881077704</v>
+        <v>0.08280935546206926</v>
       </c>
       <c r="I24">
-        <v>2.607733180100691</v>
+        <v>4.432717502687602</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1090,28 +1090,28 @@
         <v>2024121709</v>
       </c>
       <c r="B25">
-        <v>1.324376405854415</v>
+        <v>2.251222064885753</v>
       </c>
       <c r="C25">
-        <v>0.01575936</v>
+        <v>0.02678832000000001</v>
       </c>
       <c r="D25">
-        <v>0.1263958518878504</v>
+        <v>0.2148521594179166</v>
       </c>
       <c r="E25">
-        <v>0.3570586112598784</v>
+        <v>0.6069409123965206</v>
       </c>
       <c r="F25">
-        <v>0.1253810521048094</v>
+        <v>0.2131271666946059</v>
       </c>
       <c r="G25">
-        <v>0.5832154834876838</v>
+        <v>0.991370398329804</v>
       </c>
       <c r="H25">
-        <v>0.09743219762155407</v>
+        <v>0.1656187109241385</v>
       </c>
       <c r="I25">
-        <v>2.629618962216191</v>
+        <v>4.469919732648738</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1119,28 +1119,28 @@
         <v>2024121710</v>
       </c>
       <c r="B26">
-        <v>1.124897350935349</v>
+        <v>1.912140480578428</v>
       </c>
       <c r="C26">
-        <v>0.01488383999999999</v>
+        <v>0.02530008000000001</v>
       </c>
       <c r="D26">
-        <v>0.1189608017768003</v>
+        <v>0.2022137970992156</v>
       </c>
       <c r="E26">
-        <v>0.1720764391613872</v>
+        <v>0.2925016445284435</v>
       </c>
       <c r="F26">
-        <v>0.1485997654575519</v>
+        <v>0.2525951605269404</v>
       </c>
       <c r="G26">
-        <v>0.914481878108687</v>
+        <v>1.554468784581133</v>
       </c>
       <c r="H26">
-        <v>0.03789029907504883</v>
+        <v>0.06440727647049832</v>
       </c>
       <c r="I26">
-        <v>2.531790374514824</v>
+        <v>4.303627223784658</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1148,28 +1148,28 @@
         <v>2024121711</v>
       </c>
       <c r="B27">
-        <v>1.349054227081515</v>
+        <v>2.293170302119651</v>
       </c>
       <c r="C27">
-        <v>0.03589632</v>
+        <v>0.06101783999999999</v>
       </c>
       <c r="D27">
-        <v>0.2205731532944838</v>
+        <v>0.3749380821214623</v>
       </c>
       <c r="E27">
-        <v>0.07313248664358958</v>
+        <v>0.1243131989245884</v>
       </c>
       <c r="F27">
-        <v>0.1207373094342609</v>
+        <v>0.2052335679281392</v>
       </c>
       <c r="G27">
-        <v>0.2986063275456939</v>
+        <v>0.5075816439448595</v>
       </c>
       <c r="H27">
-        <v>0.0811934980179618</v>
+        <v>0.1380155924367821</v>
       </c>
       <c r="I27">
-        <v>2.179193322017505</v>
+        <v>3.704270227475482</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1177,28 +1177,28 @@
         <v>2024121712</v>
       </c>
       <c r="B28">
-        <v>1.449821997092179</v>
+        <v>2.464458937491392</v>
       </c>
       <c r="C28">
-        <v>0.03677183999999999</v>
+        <v>0.06250607999999998</v>
       </c>
       <c r="D28">
-        <v>0.2032247030353671</v>
+        <v>0.345448570044493</v>
       </c>
       <c r="E28">
-        <v>0.0559248427274508</v>
+        <v>0.0950630344717442</v>
       </c>
       <c r="F28">
-        <v>0.1292508376635998</v>
+        <v>0.2197051656666618</v>
       </c>
       <c r="G28">
-        <v>0.279943432074088</v>
+        <v>0.4758577911983061</v>
       </c>
       <c r="H28">
-        <v>0.07578059815009766</v>
+        <v>0.1288145529409966</v>
       </c>
       <c r="I28">
-        <v>2.230718250742783</v>
+        <v>3.791854131813594</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1206,28 +1206,28 @@
         <v>2024121713</v>
       </c>
       <c r="B29">
-        <v>1.426172418416206</v>
+        <v>2.424258543475573</v>
       </c>
       <c r="C29">
-        <v>0.03326976000000001</v>
+        <v>0.05655312000000002</v>
       </c>
       <c r="D29">
-        <v>0.1809195527022172</v>
+        <v>0.3075334830883906</v>
       </c>
       <c r="E29">
-        <v>0.07743439762262427</v>
+        <v>0.1316257400377996</v>
       </c>
       <c r="F29">
-        <v>0.1524695510163423</v>
+        <v>0.2591731594989968</v>
       </c>
       <c r="G29">
-        <v>0.2892748798098912</v>
+        <v>0.4917197175715831</v>
       </c>
       <c r="H29">
-        <v>0.07578059815009766</v>
+        <v>0.1288145529409966</v>
       </c>
       <c r="I29">
-        <v>2.235321157717379</v>
+        <v>3.79967831661334</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1235,28 +1235,28 @@
         <v>2024121714</v>
       </c>
       <c r="B30">
-        <v>1.47244333321702</v>
+        <v>2.502911488289129</v>
       </c>
       <c r="C30">
-        <v>0.03589632</v>
+        <v>0.06101783999999999</v>
       </c>
       <c r="D30">
-        <v>0.228008203405534</v>
+        <v>0.3875764444401636</v>
       </c>
       <c r="E30">
-        <v>0.07743439762262427</v>
+        <v>0.1316257400377996</v>
       </c>
       <c r="F30">
-        <v>0.1331206232223901</v>
+        <v>0.2262831646387176</v>
       </c>
       <c r="G30">
-        <v>0.2332861933950733</v>
+        <v>0.3965481593319217</v>
       </c>
       <c r="H30">
-        <v>0.05412899867864118</v>
+        <v>0.09201039495785474</v>
       </c>
       <c r="I30">
-        <v>2.234318069541283</v>
+        <v>3.797973231695586</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1264,28 +1264,28 @@
         <v>2024121715</v>
       </c>
       <c r="B31">
-        <v>1.507403579955412</v>
+        <v>2.562338157703815</v>
       </c>
       <c r="C31">
-        <v>0.03239423999999999</v>
+        <v>0.05506488</v>
       </c>
       <c r="D31">
-        <v>0.2503133537386836</v>
+        <v>0.4254915313962664</v>
       </c>
       <c r="E31">
-        <v>0.120453507412971</v>
+        <v>0.2047511511699105</v>
       </c>
       <c r="F31">
-        <v>0.1137716954284382</v>
+        <v>0.1933931697784388</v>
       </c>
       <c r="G31">
-        <v>0.1959604024518617</v>
+        <v>0.3331004538388142</v>
       </c>
       <c r="H31">
-        <v>0.0811934980179618</v>
+        <v>0.1380155924367821</v>
       </c>
       <c r="I31">
-        <v>2.301490277005328</v>
+        <v>3.912154936324026</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1293,28 +1293,28 @@
         <v>2024121716</v>
       </c>
       <c r="B32">
-        <v>1.662668205175923</v>
+        <v>2.826262483633746</v>
       </c>
       <c r="C32">
-        <v>0.03502080000000001</v>
+        <v>0.05952960000000002</v>
       </c>
       <c r="D32">
-        <v>0.2180948032574671</v>
+        <v>0.3707252946818955</v>
       </c>
       <c r="E32">
-        <v>0.1462649732871792</v>
+        <v>0.2486263978491769</v>
       </c>
       <c r="F32">
-        <v>0.112223781204922</v>
+        <v>0.1907619701896164</v>
       </c>
       <c r="G32">
-        <v>0.1259745444333396</v>
+        <v>0.2141360060392377</v>
       </c>
       <c r="H32">
-        <v>0.1407353965644671</v>
+        <v>0.2392270268904223</v>
       </c>
       <c r="I32">
-        <v>2.440982503923297</v>
+        <v>4.149268779284095</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1322,28 +1322,28 @@
         <v>2024121717</v>
       </c>
       <c r="B33">
-        <v>1.84569537927692</v>
+        <v>3.137378576451807</v>
       </c>
       <c r="C33">
-        <v>0.02276352</v>
+        <v>0.03869424</v>
       </c>
       <c r="D33">
-        <v>0.1685278025171337</v>
+        <v>0.2864695458905553</v>
       </c>
       <c r="E33">
-        <v>0.2236993709098032</v>
+        <v>0.3802521378869768</v>
       </c>
       <c r="F33">
-        <v>0.1091279527578896</v>
+        <v>0.185499571011972</v>
       </c>
       <c r="G33">
-        <v>0.1073116489617338</v>
+        <v>0.182412153292684</v>
       </c>
       <c r="H33">
-        <v>0.03789029907504883</v>
+        <v>0.06440727647049832</v>
       </c>
       <c r="I33">
-        <v>2.515015973498529</v>
+        <v>4.275113501004492</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1351,28 +1351,28 @@
         <v>2024121718</v>
       </c>
       <c r="B34">
-        <v>1.792226766618203</v>
+        <v>3.046490729111701</v>
       </c>
       <c r="C34">
-        <v>0.01488383999999999</v>
+        <v>0.02530008000000001</v>
       </c>
       <c r="D34">
-        <v>0.1387876020729337</v>
+        <v>0.2359160966157515</v>
       </c>
       <c r="E34">
-        <v>0.3011337685324276</v>
+        <v>0.5118778779247762</v>
       </c>
       <c r="F34">
-        <v>0.05882074049361431</v>
+        <v>0.09998558437524729</v>
       </c>
       <c r="G34">
-        <v>0.09331447735802935</v>
+        <v>0.1586192637327687</v>
       </c>
       <c r="H34">
-        <v>0.005412899867864116</v>
+        <v>0.009201039495785471</v>
       </c>
       <c r="I34">
-        <v>2.404580094943073</v>
+        <v>4.08739067125603</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1380,28 +1380,28 @@
         <v>2024121719</v>
       </c>
       <c r="B35">
-        <v>1.263710095337792</v>
+        <v>2.148099315019091</v>
       </c>
       <c r="C35">
-        <v>0.01313279999999999</v>
+        <v>0.0223236</v>
       </c>
       <c r="D35">
-        <v>0.121439151813817</v>
+        <v>0.2064265845387826</v>
       </c>
       <c r="E35">
-        <v>0.2323031928678728</v>
+        <v>0.3948772201133987</v>
       </c>
       <c r="F35">
-        <v>0.03018432735856523</v>
+        <v>0.0513083919820348</v>
       </c>
       <c r="G35">
-        <v>0.05598868641481766</v>
+        <v>0.09517155823966121</v>
       </c>
       <c r="H35">
-        <v>0.01623869960359235</v>
+        <v>0.02760311848735641</v>
       </c>
       <c r="I35">
-        <v>1.732996953396457</v>
+        <v>2.945809788380326</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1409,28 +1409,28 @@
         <v>2024121720</v>
       </c>
       <c r="B36">
-        <v>1.07142873827663</v>
+        <v>1.82125263323832</v>
       </c>
       <c r="C36">
-        <v>0.02714111999999999</v>
+        <v>0.04613543999999999</v>
       </c>
       <c r="D36">
-        <v>0.08178555122155019</v>
+        <v>0.1390219855057107</v>
       </c>
       <c r="E36">
-        <v>0.1978879050355953</v>
+        <v>0.3363768912077103</v>
       </c>
       <c r="F36">
-        <v>0.02863641313504904</v>
+        <v>0.04867719239321253</v>
       </c>
       <c r="G36">
-        <v>0.08864875349012784</v>
+        <v>0.1506883005461302</v>
       </c>
       <c r="H36">
-        <v>0.005412899867864116</v>
+        <v>0.009201039495785471</v>
       </c>
       <c r="I36">
-        <v>1.500941381026817</v>
+        <v>2.551353482386869</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1438,28 +1438,28 @@
         <v>2024121721</v>
       </c>
       <c r="B37">
-        <v>0.8596107727440145</v>
+        <v>1.461196930314046</v>
       </c>
       <c r="C37">
-        <v>0.02013696</v>
+        <v>0.03422952</v>
       </c>
       <c r="D37">
-        <v>0.06443710096243348</v>
+        <v>0.1095324734287419</v>
       </c>
       <c r="E37">
-        <v>0.1677745281823525</v>
+        <v>0.2851891034152324</v>
       </c>
       <c r="F37">
-        <v>0.01625309934691972</v>
+        <v>0.02762759568263413</v>
       </c>
       <c r="G37">
-        <v>0.05598868641481766</v>
+        <v>0.09517155823966121</v>
       </c>
       <c r="H37">
-        <v>0.01082579973572823</v>
+        <v>0.01840207899157094</v>
       </c>
       <c r="I37">
-        <v>1.195026947386266</v>
+        <v>2.031349260071887</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1467,28 +1467,28 @@
         <v>2024121722</v>
       </c>
       <c r="B38">
-        <v>0.6519057774159155</v>
+        <v>1.108132600262086</v>
       </c>
       <c r="C38">
-        <v>0.02276352</v>
+        <v>0.03869424</v>
       </c>
       <c r="D38">
-        <v>0.05452370081436676</v>
+        <v>0.09268132367047388</v>
       </c>
       <c r="E38">
-        <v>0.0559248427274508</v>
+        <v>0.0950630344717442</v>
       </c>
       <c r="F38">
-        <v>0.01083539956461315</v>
+        <v>0.01841839712175609</v>
       </c>
       <c r="G38">
-        <v>0.03732579094321174</v>
+        <v>0.06344770549310744</v>
       </c>
       <c r="H38">
-        <v>0.005412899867864116</v>
+        <v>0.009201039495785471</v>
       </c>
       <c r="I38">
-        <v>0.838691931333422</v>
+        <v>1.425638340514954</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1496,28 +1496,28 @@
         <v>2024121723</v>
       </c>
       <c r="B39">
-        <v>0.408212292798294</v>
+        <v>0.6938937575773634</v>
       </c>
       <c r="C39">
-        <v>0.01488383999999999</v>
+        <v>0.02530008000000001</v>
       </c>
       <c r="D39">
-        <v>0.04213195062928343</v>
+        <v>0.07161738647263884</v>
       </c>
       <c r="E39">
-        <v>0.03871719881131214</v>
+        <v>0.06581287001889981</v>
       </c>
       <c r="F39">
-        <v>0.01702705645867781</v>
+        <v>0.02894319547704528</v>
       </c>
       <c r="G39">
-        <v>0.06065441028271906</v>
+        <v>0.1031025214262996</v>
       </c>
       <c r="H39">
-        <v>0.005412899867864116</v>
+        <v>0.009201039495785471</v>
       </c>
       <c r="I39">
-        <v>0.5870396488481505</v>
+        <v>0.9978708504680324</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1525,28 +1525,28 @@
         <v>2024121800</v>
       </c>
       <c r="B40">
-        <v>0.3064162802365029</v>
+        <v>0.5208572789875424</v>
       </c>
       <c r="C40">
-        <v>0.02101247999999999</v>
+        <v>0.03571776</v>
       </c>
       <c r="D40">
-        <v>0.02230515033315009</v>
+        <v>0.03791508695610298</v>
       </c>
       <c r="E40">
-        <v>0.01290573293710404</v>
+        <v>0.02193762333963326</v>
       </c>
       <c r="F40">
-        <v>0.006965614005822742</v>
+        <v>0.01184039814970035</v>
       </c>
       <c r="G40">
-        <v>0.04199151481111321</v>
+        <v>0.07137866867974586</v>
       </c>
       <c r="H40">
-        <v>0.005412899867864116</v>
+        <v>0.009201039495785471</v>
       </c>
       <c r="I40">
-        <v>0.4170096721915571</v>
+        <v>0.7088478556085104</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1554,25 +1554,25 @@
         <v>2024121801</v>
       </c>
       <c r="B41">
-        <v>0.1953660847145487</v>
+        <v>0.3320902114350096</v>
       </c>
       <c r="C41">
-        <v>0.02363904</v>
+        <v>0.04018247999999999</v>
       </c>
       <c r="E41">
-        <v>0.004301910979034681</v>
+        <v>0.00731254111321109</v>
       </c>
       <c r="F41">
-        <v>0.01470518512340358</v>
+        <v>0.02499639609381182</v>
       </c>
       <c r="G41">
-        <v>0.04199151481111321</v>
+        <v>0.07137866867974586</v>
       </c>
       <c r="H41">
-        <v>0.005412899867864116</v>
+        <v>0.009201039495785471</v>
       </c>
       <c r="I41">
-        <v>0.2854166354959644</v>
+        <v>0.4851613368175638</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1580,22 +1580,22 @@
         <v>2024121802</v>
       </c>
       <c r="B42">
-        <v>0.1172196508287293</v>
+        <v>0.1992541268610061</v>
       </c>
       <c r="C42">
-        <v>0.01926144</v>
+        <v>0.03274128</v>
       </c>
       <c r="D42">
-        <v>0.02230515033315009</v>
+        <v>0.03791508695610298</v>
       </c>
       <c r="F42">
-        <v>0.01083539956461315</v>
+        <v>0.01841839712175609</v>
       </c>
       <c r="G42">
-        <v>0.069985858018522</v>
+        <v>0.1189644477995765</v>
       </c>
       <c r="I42">
-        <v>0.2396074987450145</v>
+        <v>0.4072933387384418</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1603,25 +1603,25 @@
         <v>2024121803</v>
       </c>
       <c r="B43">
-        <v>0.1449821997092177</v>
+        <v>0.2464458937491391</v>
       </c>
       <c r="C43">
-        <v>0.01313279999999999</v>
+        <v>0.0223236</v>
       </c>
       <c r="D43">
-        <v>0.01734845025911671</v>
+        <v>0.02948951207696894</v>
       </c>
       <c r="E43">
-        <v>0.01720764391613873</v>
+        <v>0.02925016445284436</v>
       </c>
       <c r="F43">
-        <v>0.01083539956461315</v>
+        <v>0.01841839712175609</v>
       </c>
       <c r="G43">
-        <v>0.08864875349012784</v>
+        <v>0.1506883005461302</v>
       </c>
       <c r="I43">
-        <v>0.2921552469392141</v>
+        <v>0.4966158679468387</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1629,25 +1629,25 @@
         <v>2024121804</v>
       </c>
       <c r="B44">
-        <v>0.2395805144131045</v>
+        <v>0.4072474698124073</v>
       </c>
       <c r="C44">
-        <v>0.01138176</v>
+        <v>0.01934712</v>
       </c>
       <c r="D44">
-        <v>0.03469690051823342</v>
+        <v>0.05897902415393788</v>
       </c>
       <c r="E44">
-        <v>0.008603821958069363</v>
+        <v>0.01462508222642218</v>
       </c>
       <c r="F44">
-        <v>0.01780101357043589</v>
+        <v>0.03025879527145645</v>
       </c>
       <c r="G44">
-        <v>0.1073116489617338</v>
+        <v>0.182412153292684</v>
       </c>
       <c r="I44">
-        <v>0.419375659421577</v>
+        <v>0.7128696447569078</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1655,28 +1655,28 @@
         <v>2024121805</v>
       </c>
       <c r="B45">
-        <v>0.5429120669962199</v>
+        <v>0.9228612191457123</v>
       </c>
       <c r="C45">
-        <v>0.01313279999999999</v>
+        <v>0.0223236</v>
       </c>
       <c r="D45">
-        <v>0.08178555122155019</v>
+        <v>0.1390219855057107</v>
       </c>
       <c r="E45">
-        <v>0.107547774475867</v>
+        <v>0.1828135278302772</v>
       </c>
       <c r="F45">
-        <v>0.04488951248196878</v>
+        <v>0.07630478807584663</v>
       </c>
       <c r="G45">
-        <v>0.1679660592444528</v>
+        <v>0.2855146747189835</v>
       </c>
       <c r="H45">
-        <v>0.005412899867864116</v>
+        <v>0.009201039495785471</v>
       </c>
       <c r="I45">
-        <v>0.9636466642879227</v>
+        <v>1.638040834772316</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1684,28 +1684,28 @@
         <v>2024121806</v>
       </c>
       <c r="B46">
-        <v>1.001508244799845</v>
+        <v>1.702399294408947</v>
       </c>
       <c r="C46">
-        <v>0.01400832</v>
+        <v>0.02381184</v>
       </c>
       <c r="D46">
-        <v>0.1462226521839838</v>
+        <v>0.2485544589344524</v>
       </c>
       <c r="E46">
-        <v>0.3871719881131215</v>
+        <v>0.6581287001889979</v>
       </c>
       <c r="F46">
-        <v>0.07739571117580826</v>
+        <v>0.1315599794411149</v>
       </c>
       <c r="G46">
-        <v>0.2752777082061868</v>
+        <v>0.4679268280116676</v>
       </c>
       <c r="H46">
-        <v>0.02165159947145646</v>
+        <v>0.03680415798314188</v>
       </c>
       <c r="I46">
-        <v>1.923236223950402</v>
+        <v>3.269185258968322</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1713,28 +1713,28 @@
         <v>2024121807</v>
       </c>
       <c r="B47">
-        <v>1.409720537598138</v>
+        <v>2.396293051986309</v>
       </c>
       <c r="C47">
-        <v>0.008755200000000003</v>
+        <v>0.0148824</v>
       </c>
       <c r="D47">
-        <v>0.1189608017768003</v>
+        <v>0.2022137970992156</v>
       </c>
       <c r="E47">
-        <v>0.3054356795114621</v>
+        <v>0.5191904190379873</v>
       </c>
       <c r="F47">
-        <v>0.08977902496393757</v>
+        <v>0.1526095761516933</v>
       </c>
       <c r="G47">
-        <v>0.2752777082061868</v>
+        <v>0.4679268280116676</v>
       </c>
       <c r="H47">
-        <v>0.04330319894291293</v>
+        <v>0.07360831596628377</v>
       </c>
       <c r="I47">
-        <v>2.251232150999438</v>
+        <v>3.826724388253157</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1742,28 +1742,28 @@
         <v>2024121808</v>
       </c>
       <c r="B48">
-        <v>1.723334515692548</v>
+        <v>2.929385233500406</v>
       </c>
       <c r="C48">
-        <v>0.01926144</v>
+        <v>0.03274128</v>
       </c>
       <c r="D48">
-        <v>0.1933113028873005</v>
+        <v>0.3285974202862255</v>
       </c>
       <c r="E48">
-        <v>0.1634726172033178</v>
+        <v>0.2778765623020213</v>
       </c>
       <c r="F48">
-        <v>0.1075800385343734</v>
+        <v>0.1828683714231497</v>
       </c>
       <c r="G48">
-        <v>0.3965865287716247</v>
+        <v>0.674131870864267</v>
       </c>
       <c r="H48">
-        <v>0.05412899867864118</v>
+        <v>0.09201039495785474</v>
       </c>
       <c r="I48">
-        <v>2.657675441767805</v>
+        <v>4.517611133333926</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1771,28 +1771,28 @@
         <v>2024121809</v>
       </c>
       <c r="B49">
-        <v>1.297642099525055</v>
+        <v>2.205778141215701</v>
       </c>
       <c r="C49">
-        <v>0.01225728</v>
+        <v>0.02083536</v>
       </c>
       <c r="D49">
-        <v>0.1809195527022172</v>
+        <v>0.3075334830883906</v>
       </c>
       <c r="E49">
-        <v>0.348454789301809</v>
+        <v>0.5923158301700984</v>
       </c>
       <c r="F49">
-        <v>0.1222852236577771</v>
+        <v>0.2078647675169615</v>
       </c>
       <c r="G49">
-        <v>0.6345384460345996</v>
+        <v>1.078610993382826</v>
       </c>
       <c r="H49">
-        <v>0.1082579973572824</v>
+        <v>0.1840207899157095</v>
       </c>
       <c r="I49">
-        <v>2.70435538857874</v>
+        <v>4.596959365289686</v>
       </c>
     </row>
   </sheetData>
